--- a/results/mp/tinybert/corona/confidence/210/stop-words-0.5/avg_0.002_scores.xlsx
+++ b/results/mp/tinybert/corona/confidence/210/stop-words-0.5/avg_0.002_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="109">
   <si>
     <t>anchor score</t>
   </si>
@@ -40,316 +40,307 @@
     <t>name</t>
   </si>
   <si>
-    <t>accused</t>
+    <t>killed</t>
   </si>
   <si>
     <t>arrested</t>
   </si>
   <si>
-    <t>killed</t>
+    <t>crude</t>
+  </si>
+  <si>
+    <t>forced</t>
   </si>
   <si>
     <t>fraud</t>
   </si>
   <si>
-    <t>chaos</t>
-  </si>
-  <si>
-    <t>forced</t>
-  </si>
-  <si>
-    <t>crude</t>
+    <t>died</t>
   </si>
   <si>
     <t>crisis</t>
   </si>
   <si>
+    <t>warning</t>
+  </si>
+  <si>
+    <t>fear</t>
+  </si>
+  <si>
     <t>die</t>
   </si>
   <si>
-    <t>uncertainty</t>
-  </si>
-  <si>
-    <t>warning</t>
+    <t>collapse</t>
   </si>
   <si>
     <t>war</t>
   </si>
   <si>
-    <t>kill</t>
+    <t>shit</t>
+  </si>
+  <si>
+    <t>shame</t>
+  </si>
+  <si>
+    <t>avoid</t>
   </si>
   <si>
     <t>emergency</t>
   </si>
   <si>
-    <t>fuck</t>
-  </si>
-  <si>
-    <t>collapse</t>
-  </si>
-  <si>
-    <t>isolation</t>
-  </si>
-  <si>
     <t>fears</t>
   </si>
   <si>
     <t>panic</t>
   </si>
   <si>
-    <t>shit</t>
-  </si>
-  <si>
-    <t>recession</t>
-  </si>
-  <si>
-    <t>selfish</t>
-  </si>
-  <si>
     <t>risk</t>
   </si>
   <si>
+    <t>sc</t>
+  </si>
+  <si>
     <t>low</t>
   </si>
   <si>
-    <t>fight</t>
-  </si>
-  <si>
-    <t>shortage</t>
+    <t>empty</t>
   </si>
   <si>
     <t>stop</t>
   </si>
   <si>
-    <t>sc</t>
-  </si>
-  <si>
-    <t>empty</t>
-  </si>
-  <si>
     <t>demand</t>
   </si>
   <si>
     <t>co</t>
   </si>
   <si>
+    <t>negative</t>
+  </si>
+  <si>
+    <t>enjoy</t>
+  </si>
+  <si>
+    <t>amazing</t>
+  </si>
+  <si>
+    <t>love</t>
+  </si>
+  <si>
+    <t>best</t>
+  </si>
+  <si>
+    <t>interesting</t>
+  </si>
+  <si>
+    <t>happy</t>
+  </si>
+  <si>
+    <t>strong</t>
+  </si>
+  <si>
+    <t>special</t>
+  </si>
+  <si>
+    <t>great</t>
+  </si>
+  <si>
+    <t>friend</t>
+  </si>
+  <si>
+    <t>positive</t>
+  </si>
+  <si>
+    <t>safety</t>
+  </si>
+  <si>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>thanks</t>
+  </si>
+  <si>
+    <t>confidence</t>
+  </si>
+  <si>
+    <t>free</t>
+  </si>
+  <si>
+    <t>heroes</t>
+  </si>
+  <si>
+    <t>support</t>
+  </si>
+  <si>
+    <t>ensure</t>
+  </si>
+  <si>
+    <t>safe</t>
+  </si>
+  <si>
+    <t>boost</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>friends</t>
+  </si>
+  <si>
+    <t>nice</t>
+  </si>
+  <si>
+    <t>better</t>
+  </si>
+  <si>
+    <t>easy</t>
+  </si>
+  <si>
+    <t>healthy</t>
+  </si>
+  <si>
+    <t>relief</t>
+  </si>
+  <si>
+    <t>fresh</t>
+  </si>
+  <si>
+    <t>well</t>
+  </si>
+  <si>
+    <t>important</t>
+  </si>
+  <si>
+    <t>hand</t>
+  </si>
+  <si>
+    <t>dear</t>
+  </si>
+  <si>
+    <t>ready</t>
+  </si>
+  <si>
+    <t>energy</t>
+  </si>
+  <si>
+    <t>giving</t>
+  </si>
+  <si>
+    <t>like</t>
+  </si>
+  <si>
+    <t>credit</t>
+  </si>
+  <si>
+    <t>help</t>
+  </si>
+  <si>
+    <t>clean</t>
+  </si>
+  <si>
+    <t>hope</t>
+  </si>
+  <si>
+    <t>increase</t>
+  </si>
+  <si>
+    <t>care</t>
+  </si>
+  <si>
+    <t>protect</t>
+  </si>
+  <si>
+    <t>please</t>
+  </si>
+  <si>
+    <t>sure</t>
+  </si>
+  <si>
+    <t>save</t>
+  </si>
+  <si>
+    <t>join</t>
+  </si>
+  <si>
+    <t>share</t>
+  </si>
+  <si>
+    <t>alert</t>
+  </si>
+  <si>
+    <t>key</t>
+  </si>
+  <si>
+    <t>available</t>
+  </si>
+  <si>
+    <t>helping</t>
+  </si>
+  <si>
+    <t>increased</t>
+  </si>
+  <si>
+    <t>staff</t>
+  </si>
+  <si>
+    <t>essential</t>
+  </si>
+  <si>
+    <t>customers</t>
+  </si>
+  <si>
+    <t>local</t>
+  </si>
+  <si>
+    <t>make</t>
+  </si>
+  <si>
+    <t>retail</t>
+  </si>
+  <si>
+    <t>shopping</t>
+  </si>
+  <si>
+    <t>online</t>
+  </si>
+  <si>
+    <t>shop</t>
+  </si>
+  <si>
+    <t>new</t>
+  </si>
+  <si>
+    <t>store</t>
+  </si>
+  <si>
+    <t>stock</t>
+  </si>
+  <si>
+    <t>grocery</t>
+  </si>
+  <si>
+    <t>consumer</t>
+  </si>
+  <si>
+    <t>supermarket</t>
+  </si>
+  <si>
+    <t>us</t>
+  </si>
+  <si>
     <t>19</t>
   </si>
   <si>
+    <t>san</t>
+  </si>
+  <si>
+    <t>food</t>
+  </si>
+  <si>
     <t>corona</t>
   </si>
   <si>
-    <t>negative</t>
-  </si>
-  <si>
-    <t>amazing</t>
-  </si>
-  <si>
-    <t>proud</t>
-  </si>
-  <si>
-    <t>enjoy</t>
-  </si>
-  <si>
-    <t>interesting</t>
-  </si>
-  <si>
-    <t>best</t>
-  </si>
-  <si>
-    <t>love</t>
-  </si>
-  <si>
-    <t>thanks</t>
-  </si>
-  <si>
-    <t>healthy</t>
-  </si>
-  <si>
-    <t>creative</t>
-  </si>
-  <si>
-    <t>wow</t>
-  </si>
-  <si>
-    <t>nice</t>
-  </si>
-  <si>
-    <t>great</t>
-  </si>
-  <si>
-    <t>free</t>
-  </si>
-  <si>
-    <t>happy</t>
-  </si>
-  <si>
-    <t>positive</t>
-  </si>
-  <si>
-    <t>relief</t>
-  </si>
-  <si>
-    <t>support</t>
-  </si>
-  <si>
-    <t>thank</t>
-  </si>
-  <si>
-    <t>strong</t>
-  </si>
-  <si>
-    <t>fresh</t>
-  </si>
-  <si>
-    <t>special</t>
-  </si>
-  <si>
-    <t>safe</t>
-  </si>
-  <si>
-    <t>safety</t>
-  </si>
-  <si>
-    <t>ensure</t>
-  </si>
-  <si>
-    <t>shares</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>boost</t>
-  </si>
-  <si>
-    <t>protect</t>
-  </si>
-  <si>
-    <t>effective</t>
-  </si>
-  <si>
-    <t>well</t>
-  </si>
-  <si>
-    <t>gt</t>
-  </si>
-  <si>
-    <t>important</t>
-  </si>
-  <si>
-    <t>better</t>
-  </si>
-  <si>
-    <t>brilliant</t>
-  </si>
-  <si>
-    <t>heroes</t>
-  </si>
-  <si>
-    <t>hand</t>
-  </si>
-  <si>
-    <t>security</t>
-  </si>
-  <si>
-    <t>worth</t>
-  </si>
-  <si>
-    <t>funny</t>
-  </si>
-  <si>
-    <t>help</t>
-  </si>
-  <si>
-    <t>care</t>
-  </si>
-  <si>
-    <t>confidence</t>
-  </si>
-  <si>
-    <t>like</t>
-  </si>
-  <si>
-    <t>please</t>
-  </si>
-  <si>
-    <t>save</t>
-  </si>
-  <si>
-    <t>energy</t>
-  </si>
-  <si>
-    <t>friends</t>
-  </si>
-  <si>
-    <t>prepared</t>
-  </si>
-  <si>
-    <t>giving</t>
-  </si>
-  <si>
-    <t>credit</t>
-  </si>
-  <si>
-    <t>increase</t>
-  </si>
-  <si>
-    <t>contest</t>
-  </si>
-  <si>
-    <t>sure</t>
-  </si>
-  <si>
-    <t>hope</t>
-  </si>
-  <si>
-    <t>join</t>
-  </si>
-  <si>
-    <t>key</t>
-  </si>
-  <si>
-    <t>share</t>
-  </si>
-  <si>
-    <t>increased</t>
-  </si>
-  <si>
-    <t>alert</t>
-  </si>
-  <si>
-    <t>give</t>
-  </si>
-  <si>
-    <t>want</t>
-  </si>
-  <si>
-    <t>new</t>
-  </si>
-  <si>
-    <t>online</t>
-  </si>
-  <si>
-    <t>home</t>
-  </si>
-  <si>
-    <t>shopping</t>
-  </si>
-  <si>
-    <t>stock</t>
-  </si>
-  <si>
-    <t>grocery</t>
-  </si>
-  <si>
-    <t>store</t>
-  </si>
-  <si>
-    <t>consumer</t>
-  </si>
-  <si>
-    <t>supermarket</t>
+    <t>prices</t>
   </si>
 </sst>
 </file>
@@ -707,7 +698,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q75"/>
+  <dimension ref="A1:Q78"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -715,10 +706,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="J1" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -779,10 +770,10 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="D3">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -797,16 +788,16 @@
         <v>0</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="K3">
         <v>1</v>
       </c>
       <c r="L3">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="M3">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -826,13 +817,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>1</v>
+        <v>0.8666666666666667</v>
       </c>
       <c r="C4">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D4">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -844,19 +835,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="K4">
         <v>1</v>
       </c>
       <c r="L4">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="M4">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -876,13 +867,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.9090909090909091</v>
+        <v>0.8235294117647058</v>
       </c>
       <c r="C5">
-        <v>10</v>
+        <v>28</v>
       </c>
       <c r="D5">
-        <v>10</v>
+        <v>28</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -894,19 +885,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>0.9782608695652174</v>
       </c>
       <c r="L5">
-        <v>7</v>
+        <v>45</v>
       </c>
       <c r="M5">
-        <v>7</v>
+        <v>45</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -918,7 +909,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -926,13 +917,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.8823529411764706</v>
+        <v>0.6896551724137931</v>
       </c>
       <c r="C6">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="D6">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -944,19 +935,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>0.9152542372881356</v>
       </c>
       <c r="L6">
-        <v>18</v>
+        <v>54</v>
       </c>
       <c r="M6">
-        <v>18</v>
+        <v>54</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -968,7 +959,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -976,13 +967,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.875</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="C7">
-        <v>7</v>
+        <v>24</v>
       </c>
       <c r="D7">
-        <v>7</v>
+        <v>24</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -994,19 +985,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="K7">
-        <v>0.96875</v>
+        <v>0.9090909090909091</v>
       </c>
       <c r="L7">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="M7">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -1018,7 +1009,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -1026,37 +1017,37 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.8181818181818182</v>
+        <v>0.6538461538461539</v>
       </c>
       <c r="C8">
+        <v>17</v>
+      </c>
+      <c r="D8">
+        <v>17</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8" t="b">
+        <v>0</v>
+      </c>
+      <c r="H8">
         <v>9</v>
       </c>
-      <c r="D8">
-        <v>9</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
-      </c>
-      <c r="F8">
-        <v>1</v>
-      </c>
-      <c r="G8" t="b">
-        <v>0</v>
-      </c>
-      <c r="H8">
-        <v>2</v>
-      </c>
       <c r="J8" s="1" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="K8">
-        <v>0.9166666666666666</v>
+        <v>0.8846153846153846</v>
       </c>
       <c r="L8">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="M8">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -1068,7 +1059,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1076,13 +1067,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.8</v>
+        <v>0.6301369863013698</v>
       </c>
       <c r="C9">
-        <v>20</v>
+        <v>184</v>
       </c>
       <c r="D9">
-        <v>20</v>
+        <v>184</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -1094,19 +1085,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>5</v>
+        <v>108</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="K9">
-        <v>0.9</v>
+        <v>0.8636363636363636</v>
       </c>
       <c r="L9">
-        <v>36</v>
+        <v>19</v>
       </c>
       <c r="M9">
-        <v>36</v>
+        <v>19</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -1118,7 +1109,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1126,13 +1117,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.7272727272727273</v>
+        <v>0.6</v>
       </c>
       <c r="C10">
-        <v>112</v>
+        <v>15</v>
       </c>
       <c r="D10">
-        <v>112</v>
+        <v>15</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1144,19 +1135,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>42</v>
+        <v>10</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="K10">
-        <v>0.8888888888888888</v>
+        <v>0.8611111111111112</v>
       </c>
       <c r="L10">
-        <v>8</v>
+        <v>31</v>
       </c>
       <c r="M10">
-        <v>8</v>
+        <v>31</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1168,7 +1159,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1176,13 +1167,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.6875</v>
+        <v>0.5</v>
       </c>
       <c r="C11">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D11">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1194,19 +1185,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="K11">
-        <v>0.8888888888888888</v>
+        <v>0.8482142857142857</v>
       </c>
       <c r="L11">
-        <v>8</v>
+        <v>95</v>
       </c>
       <c r="M11">
-        <v>8</v>
+        <v>95</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1218,7 +1209,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>1</v>
+        <v>17</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1226,13 +1217,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.6666666666666666</v>
+        <v>0.4594594594594595</v>
       </c>
       <c r="C12">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="D12">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1244,19 +1235,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="K12">
-        <v>0.8888888888888888</v>
+        <v>0.8421052631578947</v>
       </c>
       <c r="L12">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="M12">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1268,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1276,13 +1267,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.6666666666666666</v>
+        <v>0.4333333333333333</v>
       </c>
       <c r="C13">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D13">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1294,19 +1285,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="K13">
-        <v>0.875</v>
+        <v>0.7931034482758621</v>
       </c>
       <c r="L13">
-        <v>14</v>
+        <v>46</v>
       </c>
       <c r="M13">
-        <v>14</v>
+        <v>46</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1318,7 +1309,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>2</v>
+        <v>12</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1326,13 +1317,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.6666666666666666</v>
+        <v>0.3947368421052632</v>
       </c>
       <c r="C14">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D14">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1344,19 +1335,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="K14">
-        <v>0.8627450980392157</v>
+        <v>0.7843137254901961</v>
       </c>
       <c r="L14">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="M14">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1368,7 +1359,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1376,13 +1367,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.5833333333333334</v>
+        <v>0.3846153846153846</v>
       </c>
       <c r="C15">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="D15">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1394,19 +1385,19 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="K15">
-        <v>0.8571428571428571</v>
+        <v>0.78125</v>
       </c>
       <c r="L15">
-        <v>48</v>
+        <v>100</v>
       </c>
       <c r="M15">
-        <v>48</v>
+        <v>100</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1418,7 +1409,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>8</v>
+        <v>28</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1426,13 +1417,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.5357142857142857</v>
+        <v>0.3513513513513514</v>
       </c>
       <c r="C16">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D16">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1444,19 +1435,19 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="K16">
-        <v>0.8181818181818182</v>
+        <v>0.7804878048780488</v>
       </c>
       <c r="L16">
-        <v>9</v>
+        <v>64</v>
       </c>
       <c r="M16">
-        <v>9</v>
+        <v>64</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1468,7 +1459,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>2</v>
+        <v>18</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1476,49 +1467,49 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.5</v>
+        <v>0.3454545454545455</v>
       </c>
       <c r="C17">
+        <v>19</v>
+      </c>
+      <c r="D17">
+        <v>19</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17" t="b">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>36</v>
+      </c>
+      <c r="J17" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="K17">
+        <v>0.7777777777777778</v>
+      </c>
+      <c r="L17">
+        <v>28</v>
+      </c>
+      <c r="M17">
+        <v>28</v>
+      </c>
+      <c r="N17">
+        <v>1</v>
+      </c>
+      <c r="O17">
+        <v>0</v>
+      </c>
+      <c r="P17" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q17">
         <v>8</v>
-      </c>
-      <c r="D17">
-        <v>8</v>
-      </c>
-      <c r="E17">
-        <v>0</v>
-      </c>
-      <c r="F17">
-        <v>1</v>
-      </c>
-      <c r="G17" t="b">
-        <v>0</v>
-      </c>
-      <c r="H17">
-        <v>8</v>
-      </c>
-      <c r="J17" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="K17">
-        <v>0.8148148148148148</v>
-      </c>
-      <c r="L17">
-        <v>22</v>
-      </c>
-      <c r="M17">
-        <v>22</v>
-      </c>
-      <c r="N17">
-        <v>1</v>
-      </c>
-      <c r="O17">
-        <v>0</v>
-      </c>
-      <c r="P17" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q17">
-        <v>5</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1526,13 +1517,13 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.4736842105263158</v>
+        <v>0.32</v>
       </c>
       <c r="C18">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="D18">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1544,19 +1535,19 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>10</v>
+        <v>51</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="K18">
-        <v>0.8</v>
+        <v>0.7666666666666667</v>
       </c>
       <c r="L18">
-        <v>20</v>
+        <v>92</v>
       </c>
       <c r="M18">
-        <v>20</v>
+        <v>92</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1568,7 +1559,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>5</v>
+        <v>28</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -1576,13 +1567,13 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.45</v>
+        <v>0.3137254901960784</v>
       </c>
       <c r="C19">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D19">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1594,19 +1585,19 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>11</v>
+        <v>35</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="K19">
-        <v>0.7843137254901961</v>
+        <v>0.7659574468085106</v>
       </c>
       <c r="L19">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="M19">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1626,13 +1617,13 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.4444444444444444</v>
+        <v>0.3003875968992248</v>
       </c>
       <c r="C20">
-        <v>12</v>
+        <v>155</v>
       </c>
       <c r="D20">
-        <v>12</v>
+        <v>155</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1644,19 +1635,19 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>15</v>
+        <v>361</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="K20">
-        <v>0.7777777777777778</v>
+        <v>0.7547169811320755</v>
       </c>
       <c r="L20">
-        <v>42</v>
+        <v>80</v>
       </c>
       <c r="M20">
-        <v>42</v>
+        <v>80</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1668,7 +1659,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>12</v>
+        <v>26</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -1676,13 +1667,13 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.4377682403433477</v>
+        <v>0.2727272727272727</v>
       </c>
       <c r="C21">
-        <v>102</v>
+        <v>21</v>
       </c>
       <c r="D21">
-        <v>102</v>
+        <v>21</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -1694,19 +1685,19 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>131</v>
+        <v>56</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="K21">
-        <v>0.7777777777777778</v>
+        <v>0.75</v>
       </c>
       <c r="L21">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="M21">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1718,7 +1709,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -1726,13 +1717,13 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.4285714285714285</v>
+        <v>0.2169312169312169</v>
       </c>
       <c r="C22">
-        <v>9</v>
+        <v>41</v>
       </c>
       <c r="D22">
-        <v>9</v>
+        <v>41</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -1744,19 +1735,19 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>12</v>
+        <v>148</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="K22">
-        <v>0.7692307692307693</v>
+        <v>0.7464788732394366</v>
       </c>
       <c r="L22">
-        <v>20</v>
+        <v>106</v>
       </c>
       <c r="M22">
-        <v>20</v>
+        <v>106</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1768,7 +1759,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>6</v>
+        <v>36</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -1776,13 +1767,13 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.4117647058823529</v>
+        <v>0.1946308724832215</v>
       </c>
       <c r="C23">
-        <v>7</v>
+        <v>29</v>
       </c>
       <c r="D23">
-        <v>7</v>
+        <v>29</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -1794,19 +1785,19 @@
         <v>0</v>
       </c>
       <c r="H23">
-        <v>10</v>
+        <v>120</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="K23">
-        <v>0.7692307692307693</v>
+        <v>0.7391304347826086</v>
       </c>
       <c r="L23">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="M23">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1818,7 +1809,7 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -1826,13 +1817,13 @@
         <v>29</v>
       </c>
       <c r="B24">
-        <v>0.3888888888888889</v>
+        <v>0.1444444444444444</v>
       </c>
       <c r="C24">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="D24">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -1844,19 +1835,19 @@
         <v>0</v>
       </c>
       <c r="H24">
-        <v>11</v>
+        <v>77</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="K24">
-        <v>0.7586206896551724</v>
+        <v>0.71875</v>
       </c>
       <c r="L24">
-        <v>44</v>
+        <v>115</v>
       </c>
       <c r="M24">
-        <v>44</v>
+        <v>115</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1868,7 +1859,7 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>14</v>
+        <v>45</v>
       </c>
     </row>
     <row r="25" spans="1:17">
@@ -1876,13 +1867,13 @@
         <v>30</v>
       </c>
       <c r="B25">
-        <v>0.3793103448275862</v>
+        <v>0.1349206349206349</v>
       </c>
       <c r="C25">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="D25">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -1894,19 +1885,19 @@
         <v>0</v>
       </c>
       <c r="H25">
-        <v>18</v>
+        <v>218</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="K25">
-        <v>0.7586206896551724</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="L25">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="M25">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1918,7 +1909,7 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="26" spans="1:17">
@@ -1926,13 +1917,13 @@
         <v>31</v>
       </c>
       <c r="B26">
-        <v>0.325</v>
+        <v>0.06166219839142091</v>
       </c>
       <c r="C26">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D26">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -1944,19 +1935,19 @@
         <v>0</v>
       </c>
       <c r="H26">
-        <v>54</v>
+        <v>350</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="K26">
-        <v>0.75</v>
+        <v>0.7037037037037037</v>
       </c>
       <c r="L26">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="M26">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1968,7 +1959,7 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="27" spans="1:17">
@@ -1976,723 +1967,531 @@
         <v>32</v>
       </c>
       <c r="B27">
-        <v>0.2173913043478261</v>
+        <v>0.004651162790697674</v>
       </c>
       <c r="C27">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D27">
-        <v>10</v>
+        <v>111</v>
       </c>
       <c r="E27">
-        <v>0</v>
+        <v>0.87</v>
       </c>
       <c r="F27">
-        <v>1</v>
+        <v>0.13</v>
       </c>
       <c r="G27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H27">
+        <v>2996</v>
+      </c>
+      <c r="J27" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="K27">
+        <v>0.6984126984126984</v>
+      </c>
+      <c r="L27">
+        <v>44</v>
+      </c>
+      <c r="M27">
+        <v>44</v>
+      </c>
+      <c r="N27">
+        <v>1</v>
+      </c>
+      <c r="O27">
+        <v>0</v>
+      </c>
+      <c r="P27" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q27">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17">
+      <c r="J28" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="K28">
+        <v>0.6842105263157895</v>
+      </c>
+      <c r="L28">
+        <v>13</v>
+      </c>
+      <c r="M28">
+        <v>13</v>
+      </c>
+      <c r="N28">
+        <v>1</v>
+      </c>
+      <c r="O28">
+        <v>0</v>
+      </c>
+      <c r="P28" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q28">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17">
+      <c r="J29" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="K29">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="L29">
+        <v>18</v>
+      </c>
+      <c r="M29">
+        <v>18</v>
+      </c>
+      <c r="N29">
+        <v>1</v>
+      </c>
+      <c r="O29">
+        <v>0</v>
+      </c>
+      <c r="P29" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q29">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17">
+      <c r="J30" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="K30">
+        <v>0.66</v>
+      </c>
+      <c r="L30">
+        <v>33</v>
+      </c>
+      <c r="M30">
+        <v>33</v>
+      </c>
+      <c r="N30">
+        <v>1</v>
+      </c>
+      <c r="O30">
+        <v>0</v>
+      </c>
+      <c r="P30" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q30">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17">
+      <c r="J31" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="K31">
+        <v>0.6458333333333334</v>
+      </c>
+      <c r="L31">
+        <v>31</v>
+      </c>
+      <c r="M31">
+        <v>31</v>
+      </c>
+      <c r="N31">
+        <v>1</v>
+      </c>
+      <c r="O31">
+        <v>0</v>
+      </c>
+      <c r="P31" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q31">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17">
+      <c r="J32" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="K32">
+        <v>0.6276595744680851</v>
+      </c>
+      <c r="L32">
+        <v>59</v>
+      </c>
+      <c r="M32">
+        <v>59</v>
+      </c>
+      <c r="N32">
+        <v>1</v>
+      </c>
+      <c r="O32">
+        <v>0</v>
+      </c>
+      <c r="P32" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q32">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="33" spans="10:17">
+      <c r="J33" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="K33">
+        <v>0.6222222222222222</v>
+      </c>
+      <c r="L33">
+        <v>28</v>
+      </c>
+      <c r="M33">
+        <v>28</v>
+      </c>
+      <c r="N33">
+        <v>1</v>
+      </c>
+      <c r="O33">
+        <v>0</v>
+      </c>
+      <c r="P33" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q33">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="34" spans="10:17">
+      <c r="J34" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="K34">
+        <v>0.6083550913838121</v>
+      </c>
+      <c r="L34">
+        <v>233</v>
+      </c>
+      <c r="M34">
+        <v>233</v>
+      </c>
+      <c r="N34">
+        <v>1</v>
+      </c>
+      <c r="O34">
+        <v>0</v>
+      </c>
+      <c r="P34" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q34">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="35" spans="10:17">
+      <c r="J35" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="K35">
+        <v>0.6071428571428571</v>
+      </c>
+      <c r="L35">
+        <v>17</v>
+      </c>
+      <c r="M35">
+        <v>17</v>
+      </c>
+      <c r="N35">
+        <v>1</v>
+      </c>
+      <c r="O35">
+        <v>0</v>
+      </c>
+      <c r="P35" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q35">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="36" spans="10:17">
+      <c r="J36" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="K36">
+        <v>0.6071428571428571</v>
+      </c>
+      <c r="L36">
+        <v>17</v>
+      </c>
+      <c r="M36">
+        <v>17</v>
+      </c>
+      <c r="N36">
+        <v>1</v>
+      </c>
+      <c r="O36">
+        <v>0</v>
+      </c>
+      <c r="P36" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q36">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="37" spans="10:17">
+      <c r="J37" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="K37">
+        <v>0.575</v>
+      </c>
+      <c r="L37">
+        <v>23</v>
+      </c>
+      <c r="M37">
+        <v>23</v>
+      </c>
+      <c r="N37">
+        <v>1</v>
+      </c>
+      <c r="O37">
+        <v>0</v>
+      </c>
+      <c r="P37" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q37">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="38" spans="10:17">
+      <c r="J38" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="K38">
+        <v>0.5151515151515151</v>
+      </c>
+      <c r="L38">
+        <v>17</v>
+      </c>
+      <c r="M38">
+        <v>17</v>
+      </c>
+      <c r="N38">
+        <v>1</v>
+      </c>
+      <c r="O38">
+        <v>0</v>
+      </c>
+      <c r="P38" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q38">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="39" spans="10:17">
+      <c r="J39" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="K39">
+        <v>0.5029411764705882</v>
+      </c>
+      <c r="L39">
+        <v>171</v>
+      </c>
+      <c r="M39">
+        <v>171</v>
+      </c>
+      <c r="N39">
+        <v>1</v>
+      </c>
+      <c r="O39">
+        <v>0</v>
+      </c>
+      <c r="P39" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q39">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="40" spans="10:17">
+      <c r="J40" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="K40">
+        <v>0.5</v>
+      </c>
+      <c r="L40">
+        <v>17</v>
+      </c>
+      <c r="M40">
+        <v>17</v>
+      </c>
+      <c r="N40">
+        <v>1</v>
+      </c>
+      <c r="O40">
+        <v>0</v>
+      </c>
+      <c r="P40" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q40">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="41" spans="10:17">
+      <c r="J41" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="K41">
+        <v>0.488135593220339</v>
+      </c>
+      <c r="L41">
+        <v>144</v>
+      </c>
+      <c r="M41">
+        <v>144</v>
+      </c>
+      <c r="N41">
+        <v>1</v>
+      </c>
+      <c r="O41">
+        <v>0</v>
+      </c>
+      <c r="P41" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q41">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="42" spans="10:17">
+      <c r="J42" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="K42">
+        <v>0.4838709677419355</v>
+      </c>
+      <c r="L42">
+        <v>15</v>
+      </c>
+      <c r="M42">
+        <v>15</v>
+      </c>
+      <c r="N42">
+        <v>1</v>
+      </c>
+      <c r="O42">
+        <v>0</v>
+      </c>
+      <c r="P42" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q42">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="43" spans="10:17">
+      <c r="J43" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="K43">
+        <v>0.4769230769230769</v>
+      </c>
+      <c r="L43">
+        <v>31</v>
+      </c>
+      <c r="M43">
+        <v>31</v>
+      </c>
+      <c r="N43">
+        <v>1</v>
+      </c>
+      <c r="O43">
+        <v>0</v>
+      </c>
+      <c r="P43" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q43">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="44" spans="10:17">
+      <c r="J44" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="K44">
+        <v>0.4615384615384616</v>
+      </c>
+      <c r="L44">
         <v>36</v>
       </c>
-      <c r="J27" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="K27">
-        <v>0.7272727272727273</v>
-      </c>
-      <c r="L27">
-        <v>8</v>
-      </c>
-      <c r="M27">
-        <v>8</v>
-      </c>
-      <c r="N27">
-        <v>1</v>
-      </c>
-      <c r="O27">
-        <v>0</v>
-      </c>
-      <c r="P27" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q27">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="28" spans="1:17">
-      <c r="A28" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B28">
-        <v>0.2105263157894737</v>
-      </c>
-      <c r="C28">
-        <v>8</v>
-      </c>
-      <c r="D28">
-        <v>8</v>
-      </c>
-      <c r="E28">
-        <v>0</v>
-      </c>
-      <c r="F28">
-        <v>1</v>
-      </c>
-      <c r="G28" t="b">
-        <v>0</v>
-      </c>
-      <c r="H28">
-        <v>30</v>
-      </c>
-      <c r="J28" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="K28">
-        <v>0.726027397260274</v>
-      </c>
-      <c r="L28">
-        <v>53</v>
-      </c>
-      <c r="M28">
-        <v>53</v>
-      </c>
-      <c r="N28">
-        <v>1</v>
-      </c>
-      <c r="O28">
-        <v>0</v>
-      </c>
-      <c r="P28" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q28">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="29" spans="1:17">
-      <c r="A29" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B29">
-        <v>0.2090909090909091</v>
-      </c>
-      <c r="C29">
-        <v>23</v>
-      </c>
-      <c r="D29">
-        <v>23</v>
-      </c>
-      <c r="E29">
-        <v>0</v>
-      </c>
-      <c r="F29">
-        <v>1</v>
-      </c>
-      <c r="G29" t="b">
-        <v>0</v>
-      </c>
-      <c r="H29">
-        <v>87</v>
-      </c>
-      <c r="J29" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="K29">
-        <v>0.7058823529411765</v>
-      </c>
-      <c r="L29">
-        <v>12</v>
-      </c>
-      <c r="M29">
-        <v>12</v>
-      </c>
-      <c r="N29">
-        <v>1</v>
-      </c>
-      <c r="O29">
-        <v>0</v>
-      </c>
-      <c r="P29" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q29">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="30" spans="1:17">
-      <c r="A30" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B30">
-        <v>0.1976744186046512</v>
-      </c>
-      <c r="C30">
-        <v>17</v>
-      </c>
-      <c r="D30">
-        <v>17</v>
-      </c>
-      <c r="E30">
-        <v>0</v>
-      </c>
-      <c r="F30">
-        <v>1</v>
-      </c>
-      <c r="G30" t="b">
-        <v>0</v>
-      </c>
-      <c r="H30">
-        <v>69</v>
-      </c>
-      <c r="J30" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="K30">
-        <v>0.7</v>
-      </c>
-      <c r="L30">
-        <v>21</v>
-      </c>
-      <c r="M30">
-        <v>21</v>
-      </c>
-      <c r="N30">
-        <v>1</v>
-      </c>
-      <c r="O30">
-        <v>0</v>
-      </c>
-      <c r="P30" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q30">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="31" spans="1:17">
-      <c r="A31" s="1" t="s">
+      <c r="M44">
         <v>36</v>
       </c>
-      <c r="B31">
-        <v>0.175</v>
-      </c>
-      <c r="C31">
-        <v>7</v>
-      </c>
-      <c r="D31">
-        <v>7</v>
-      </c>
-      <c r="E31">
-        <v>0</v>
-      </c>
-      <c r="F31">
-        <v>1</v>
-      </c>
-      <c r="G31" t="b">
-        <v>0</v>
-      </c>
-      <c r="H31">
-        <v>33</v>
-      </c>
-      <c r="J31" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="K31">
-        <v>0.7</v>
-      </c>
-      <c r="L31">
-        <v>7</v>
-      </c>
-      <c r="M31">
-        <v>7</v>
-      </c>
-      <c r="N31">
-        <v>1</v>
-      </c>
-      <c r="O31">
-        <v>0</v>
-      </c>
-      <c r="P31" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q31">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="32" spans="1:17">
-      <c r="A32" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B32">
-        <v>0.08064516129032258</v>
-      </c>
-      <c r="C32">
-        <v>15</v>
-      </c>
-      <c r="D32">
-        <v>15</v>
-      </c>
-      <c r="E32">
-        <v>0</v>
-      </c>
-      <c r="F32">
-        <v>1</v>
-      </c>
-      <c r="G32" t="b">
-        <v>0</v>
-      </c>
-      <c r="H32">
-        <v>171</v>
-      </c>
-      <c r="J32" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="K32">
-        <v>0.6923076923076923</v>
-      </c>
-      <c r="L32">
-        <v>27</v>
-      </c>
-      <c r="M32">
-        <v>27</v>
-      </c>
-      <c r="N32">
-        <v>1</v>
-      </c>
-      <c r="O32">
-        <v>0</v>
-      </c>
-      <c r="P32" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q32">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="33" spans="1:17">
-      <c r="A33" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B33">
-        <v>0.007128969539857421</v>
-      </c>
-      <c r="C33">
-        <v>11</v>
-      </c>
-      <c r="D33">
+      <c r="N44">
+        <v>1</v>
+      </c>
+      <c r="O44">
+        <v>0</v>
+      </c>
+      <c r="P44" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q44">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="45" spans="10:17">
+      <c r="J45" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="K45">
+        <v>0.4606741573033708</v>
+      </c>
+      <c r="L45">
+        <v>41</v>
+      </c>
+      <c r="M45">
+        <v>41</v>
+      </c>
+      <c r="N45">
+        <v>1</v>
+      </c>
+      <c r="O45">
+        <v>0</v>
+      </c>
+      <c r="P45" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q45">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="46" spans="10:17">
+      <c r="J46" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="K46">
+        <v>0.4383561643835616</v>
+      </c>
+      <c r="L46">
         <v>32</v>
       </c>
-      <c r="E33">
-        <v>0.66</v>
-      </c>
-      <c r="F33">
-        <v>0.34</v>
-      </c>
-      <c r="G33" t="b">
-        <v>1</v>
-      </c>
-      <c r="H33">
-        <v>1532</v>
-      </c>
-      <c r="J33" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="K33">
-        <v>0.65</v>
-      </c>
-      <c r="L33">
-        <v>13</v>
-      </c>
-      <c r="M33">
-        <v>13</v>
-      </c>
-      <c r="N33">
-        <v>1</v>
-      </c>
-      <c r="O33">
-        <v>0</v>
-      </c>
-      <c r="P33" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q33">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="34" spans="1:17">
-      <c r="A34" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="B34">
-        <v>0.00641025641025641</v>
-      </c>
-      <c r="C34">
-        <v>7</v>
-      </c>
-      <c r="D34">
-        <v>38</v>
-      </c>
-      <c r="E34">
-        <v>0.82</v>
-      </c>
-      <c r="F34">
-        <v>0.18</v>
-      </c>
-      <c r="G34" t="b">
-        <v>1</v>
-      </c>
-      <c r="H34">
-        <v>1085</v>
-      </c>
-      <c r="J34" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="K34">
-        <v>0.6470588235294118</v>
-      </c>
-      <c r="L34">
-        <v>11</v>
-      </c>
-      <c r="M34">
-        <v>11</v>
-      </c>
-      <c r="N34">
-        <v>1</v>
-      </c>
-      <c r="O34">
-        <v>0</v>
-      </c>
-      <c r="P34" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q34">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="35" spans="1:17">
-      <c r="A35" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="B35">
-        <v>0.004435994930291508</v>
-      </c>
-      <c r="C35">
-        <v>7</v>
-      </c>
-      <c r="D35">
-        <v>26</v>
-      </c>
-      <c r="E35">
-        <v>0.73</v>
-      </c>
-      <c r="F35">
-        <v>0.27</v>
-      </c>
-      <c r="G35" t="b">
-        <v>1</v>
-      </c>
-      <c r="H35">
-        <v>1571</v>
-      </c>
-      <c r="J35" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="K35">
-        <v>0.6363636363636364</v>
-      </c>
-      <c r="L35">
-        <v>21</v>
-      </c>
-      <c r="M35">
-        <v>21</v>
-      </c>
-      <c r="N35">
-        <v>1</v>
-      </c>
-      <c r="O35">
-        <v>0</v>
-      </c>
-      <c r="P35" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q35">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="36" spans="1:17">
-      <c r="J36" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="K36">
-        <v>0.6363636363636364</v>
-      </c>
-      <c r="L36">
-        <v>7</v>
-      </c>
-      <c r="M36">
-        <v>7</v>
-      </c>
-      <c r="N36">
-        <v>1</v>
-      </c>
-      <c r="O36">
-        <v>0</v>
-      </c>
-      <c r="P36" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q36">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="37" spans="1:17">
-      <c r="J37" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="K37">
-        <v>0.625</v>
-      </c>
-      <c r="L37">
-        <v>15</v>
-      </c>
-      <c r="M37">
-        <v>15</v>
-      </c>
-      <c r="N37">
-        <v>1</v>
-      </c>
-      <c r="O37">
-        <v>0</v>
-      </c>
-      <c r="P37" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q37">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="38" spans="1:17">
-      <c r="J38" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="K38">
-        <v>0.6244131455399061</v>
-      </c>
-      <c r="L38">
-        <v>133</v>
-      </c>
-      <c r="M38">
-        <v>133</v>
-      </c>
-      <c r="N38">
-        <v>1</v>
-      </c>
-      <c r="O38">
-        <v>0</v>
-      </c>
-      <c r="P38" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q38">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="39" spans="1:17">
-      <c r="J39" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="K39">
-        <v>0.6153846153846154</v>
-      </c>
-      <c r="L39">
-        <v>8</v>
-      </c>
-      <c r="M39">
-        <v>8</v>
-      </c>
-      <c r="N39">
-        <v>1</v>
-      </c>
-      <c r="O39">
-        <v>0</v>
-      </c>
-      <c r="P39" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q39">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="40" spans="1:17">
-      <c r="J40" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="K40">
-        <v>0.5833333333333334</v>
-      </c>
-      <c r="L40">
-        <v>7</v>
-      </c>
-      <c r="M40">
-        <v>7</v>
-      </c>
-      <c r="N40">
-        <v>1</v>
-      </c>
-      <c r="O40">
-        <v>0</v>
-      </c>
-      <c r="P40" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q40">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="41" spans="1:17">
-      <c r="J41" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="K41">
-        <v>0.5833333333333334</v>
-      </c>
-      <c r="L41">
-        <v>7</v>
-      </c>
-      <c r="M41">
-        <v>7</v>
-      </c>
-      <c r="N41">
-        <v>1</v>
-      </c>
-      <c r="O41">
-        <v>0</v>
-      </c>
-      <c r="P41" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q41">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="42" spans="1:17">
-      <c r="J42" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="K42">
-        <v>0.5736434108527132</v>
-      </c>
-      <c r="L42">
-        <v>74</v>
-      </c>
-      <c r="M42">
-        <v>74</v>
-      </c>
-      <c r="N42">
-        <v>1</v>
-      </c>
-      <c r="O42">
-        <v>0</v>
-      </c>
-      <c r="P42" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q42">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="43" spans="1:17">
-      <c r="J43" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="K43">
-        <v>0.5714285714285714</v>
-      </c>
-      <c r="L43">
-        <v>20</v>
-      </c>
-      <c r="M43">
-        <v>20</v>
-      </c>
-      <c r="N43">
-        <v>1</v>
-      </c>
-      <c r="O43">
-        <v>0</v>
-      </c>
-      <c r="P43" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q43">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="44" spans="1:17">
-      <c r="J44" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="K44">
-        <v>0.5600000000000001</v>
-      </c>
-      <c r="L44">
-        <v>14</v>
-      </c>
-      <c r="M44">
-        <v>14</v>
-      </c>
-      <c r="N44">
-        <v>1</v>
-      </c>
-      <c r="O44">
-        <v>0</v>
-      </c>
-      <c r="P44" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q44">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="45" spans="1:17">
-      <c r="J45" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="K45">
-        <v>0.5555555555555556</v>
-      </c>
-      <c r="L45">
-        <v>80</v>
-      </c>
-      <c r="M45">
-        <v>80</v>
-      </c>
-      <c r="N45">
-        <v>1</v>
-      </c>
-      <c r="O45">
-        <v>0</v>
-      </c>
-      <c r="P45" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q45">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="46" spans="1:17">
-      <c r="J46" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="K46">
-        <v>0.5543478260869565</v>
-      </c>
-      <c r="L46">
-        <v>51</v>
-      </c>
       <c r="M46">
-        <v>51</v>
+        <v>32</v>
       </c>
       <c r="N46">
         <v>1</v>
@@ -2707,18 +2506,18 @@
         <v>41</v>
       </c>
     </row>
-    <row r="47" spans="1:17">
+    <row r="47" spans="10:17">
       <c r="J47" s="1" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="K47">
-        <v>0.55</v>
+        <v>0.4225941422594142</v>
       </c>
       <c r="L47">
-        <v>11</v>
+        <v>101</v>
       </c>
       <c r="M47">
-        <v>11</v>
+        <v>101</v>
       </c>
       <c r="N47">
         <v>1</v>
@@ -2730,21 +2529,21 @@
         <v>0</v>
       </c>
       <c r="Q47">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="48" spans="1:17">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="48" spans="10:17">
       <c r="J48" s="1" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="K48">
-        <v>0.5454545454545454</v>
+        <v>0.40625</v>
       </c>
       <c r="L48">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="M48">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="N48">
         <v>1</v>
@@ -2756,21 +2555,21 @@
         <v>0</v>
       </c>
       <c r="Q48">
-        <v>10</v>
+        <v>38</v>
       </c>
     </row>
     <row r="49" spans="10:17">
       <c r="J49" s="1" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="K49">
-        <v>0.5384615384615384</v>
+        <v>0.4</v>
       </c>
       <c r="L49">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="M49">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="N49">
         <v>1</v>
@@ -2782,21 +2581,21 @@
         <v>0</v>
       </c>
       <c r="Q49">
-        <v>6</v>
+        <v>21</v>
       </c>
     </row>
     <row r="50" spans="10:17">
       <c r="J50" s="1" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="K50">
-        <v>0.5384615384615384</v>
+        <v>0.3953488372093023</v>
       </c>
       <c r="L50">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="M50">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="N50">
         <v>1</v>
@@ -2808,21 +2607,21 @@
         <v>0</v>
       </c>
       <c r="Q50">
-        <v>6</v>
+        <v>26</v>
       </c>
     </row>
     <row r="51" spans="10:17">
       <c r="J51" s="1" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="K51">
-        <v>0.5384615384615384</v>
+        <v>0.3714285714285714</v>
       </c>
       <c r="L51">
-        <v>7</v>
+        <v>26</v>
       </c>
       <c r="M51">
-        <v>7</v>
+        <v>26</v>
       </c>
       <c r="N51">
         <v>1</v>
@@ -2834,21 +2633,21 @@
         <v>0</v>
       </c>
       <c r="Q51">
-        <v>6</v>
+        <v>44</v>
       </c>
     </row>
     <row r="52" spans="10:17">
       <c r="J52" s="1" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="K52">
-        <v>0.5263157894736842</v>
+        <v>0.3571428571428572</v>
       </c>
       <c r="L52">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="M52">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="N52">
         <v>1</v>
@@ -2860,21 +2659,21 @@
         <v>0</v>
       </c>
       <c r="Q52">
-        <v>9</v>
+        <v>27</v>
       </c>
     </row>
     <row r="53" spans="10:17">
       <c r="J53" s="1" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="K53">
-        <v>0.4594594594594595</v>
+        <v>0.3191489361702128</v>
       </c>
       <c r="L53">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="M53">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="N53">
         <v>1</v>
@@ -2886,21 +2685,21 @@
         <v>0</v>
       </c>
       <c r="Q53">
-        <v>20</v>
+        <v>32</v>
       </c>
     </row>
     <row r="54" spans="10:17">
       <c r="J54" s="1" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="K54">
-        <v>0.4444444444444444</v>
+        <v>0.2542372881355932</v>
       </c>
       <c r="L54">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="M54">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="N54">
         <v>1</v>
@@ -2912,21 +2711,21 @@
         <v>0</v>
       </c>
       <c r="Q54">
-        <v>10</v>
+        <v>44</v>
       </c>
     </row>
     <row r="55" spans="10:17">
       <c r="J55" s="1" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="K55">
-        <v>0.4166666666666667</v>
+        <v>0.2542372881355932</v>
       </c>
       <c r="L55">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="M55">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="N55">
         <v>1</v>
@@ -2938,21 +2737,21 @@
         <v>0</v>
       </c>
       <c r="Q55">
-        <v>14</v>
+        <v>44</v>
       </c>
     </row>
     <row r="56" spans="10:17">
       <c r="J56" s="1" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="K56">
-        <v>0.3928571428571428</v>
+        <v>0.2361111111111111</v>
       </c>
       <c r="L56">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="M56">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="N56">
         <v>1</v>
@@ -2964,21 +2763,21 @@
         <v>0</v>
       </c>
       <c r="Q56">
-        <v>17</v>
+        <v>55</v>
       </c>
     </row>
     <row r="57" spans="10:17">
       <c r="J57" s="1" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="K57">
-        <v>0.36</v>
+        <v>0.1649484536082474</v>
       </c>
       <c r="L57">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="M57">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="N57">
         <v>1</v>
@@ -2990,21 +2789,21 @@
         <v>0</v>
       </c>
       <c r="Q57">
-        <v>16</v>
+        <v>81</v>
       </c>
     </row>
     <row r="58" spans="10:17">
       <c r="J58" s="1" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="K58">
-        <v>0.3478260869565217</v>
+        <v>0.1417322834645669</v>
       </c>
       <c r="L58">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="M58">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="N58">
         <v>1</v>
@@ -3016,21 +2815,21 @@
         <v>0</v>
       </c>
       <c r="Q58">
-        <v>15</v>
+        <v>109</v>
       </c>
     </row>
     <row r="59" spans="10:17">
       <c r="J59" s="1" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="K59">
-        <v>0.3157894736842105</v>
+        <v>0.1386138613861386</v>
       </c>
       <c r="L59">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="M59">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="N59">
         <v>1</v>
@@ -3042,21 +2841,21 @@
         <v>0</v>
       </c>
       <c r="Q59">
-        <v>26</v>
+        <v>87</v>
       </c>
     </row>
     <row r="60" spans="10:17">
       <c r="J60" s="1" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="K60">
-        <v>0.2903225806451613</v>
+        <v>0.1288343558282209</v>
       </c>
       <c r="L60">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="M60">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="N60">
         <v>1</v>
@@ -3068,47 +2867,47 @@
         <v>0</v>
       </c>
       <c r="Q60">
-        <v>22</v>
+        <v>142</v>
       </c>
     </row>
     <row r="61" spans="10:17">
       <c r="J61" s="1" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="K61">
-        <v>0.2903225806451613</v>
+        <v>0.103030303030303</v>
       </c>
       <c r="L61">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="M61">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="N61">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="O61">
-        <v>0.09999999999999998</v>
+        <v>0</v>
       </c>
       <c r="P61" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q61">
-        <v>22</v>
+        <v>148</v>
       </c>
     </row>
     <row r="62" spans="10:17">
       <c r="J62" s="1" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="K62">
-        <v>0.2352941176470588</v>
+        <v>0.1006289308176101</v>
       </c>
       <c r="L62">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="M62">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="N62">
         <v>1</v>
@@ -3120,73 +2919,73 @@
         <v>0</v>
       </c>
       <c r="Q62">
-        <v>26</v>
+        <v>143</v>
       </c>
     </row>
     <row r="63" spans="10:17">
       <c r="J63" s="1" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="K63">
-        <v>0.2051282051282051</v>
+        <v>0.0966183574879227</v>
       </c>
       <c r="L63">
-        <v>8</v>
+        <v>40</v>
       </c>
       <c r="M63">
-        <v>8</v>
+        <v>42</v>
       </c>
       <c r="N63">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="O63">
-        <v>0</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="P63" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q63">
-        <v>31</v>
+        <v>374</v>
       </c>
     </row>
     <row r="64" spans="10:17">
       <c r="J64" s="1" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="K64">
-        <v>0.1354166666666667</v>
+        <v>0.09592326139088729</v>
       </c>
       <c r="L64">
-        <v>13</v>
+        <v>40</v>
       </c>
       <c r="M64">
-        <v>13</v>
+        <v>41</v>
       </c>
       <c r="N64">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="O64">
-        <v>0</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="P64" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q64">
-        <v>83</v>
+        <v>377</v>
       </c>
     </row>
     <row r="65" spans="10:17">
       <c r="J65" s="1" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="K65">
-        <v>0.1313131313131313</v>
+        <v>0.08648648648648649</v>
       </c>
       <c r="L65">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="M65">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="N65">
         <v>1</v>
@@ -3198,21 +2997,21 @@
         <v>0</v>
       </c>
       <c r="Q65">
-        <v>172</v>
+        <v>169</v>
       </c>
     </row>
     <row r="66" spans="10:17">
       <c r="J66" s="1" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="K66">
-        <v>0.09876543209876543</v>
+        <v>0.06976744186046512</v>
       </c>
       <c r="L66">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="M66">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="N66">
         <v>1</v>
@@ -3224,21 +3023,21 @@
         <v>0</v>
       </c>
       <c r="Q66">
-        <v>73</v>
+        <v>200</v>
       </c>
     </row>
     <row r="67" spans="10:17">
       <c r="J67" s="1" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="K67">
-        <v>0.0861244019138756</v>
+        <v>0.06823266219239374</v>
       </c>
       <c r="L67">
-        <v>18</v>
+        <v>61</v>
       </c>
       <c r="M67">
-        <v>18</v>
+        <v>61</v>
       </c>
       <c r="N67">
         <v>1</v>
@@ -3250,47 +3049,47 @@
         <v>0</v>
       </c>
       <c r="Q67">
-        <v>191</v>
+        <v>833</v>
       </c>
     </row>
     <row r="68" spans="10:17">
       <c r="J68" s="1" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="K68">
-        <v>0.06040268456375839</v>
+        <v>0.06422018348623854</v>
       </c>
       <c r="L68">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="M68">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="N68">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="O68">
-        <v>0.09999999999999998</v>
+        <v>0</v>
       </c>
       <c r="P68" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q68">
-        <v>140</v>
+        <v>306</v>
       </c>
     </row>
     <row r="69" spans="10:17">
       <c r="J69" s="1" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="K69">
-        <v>0.0539906103286385</v>
+        <v>0.05660377358490566</v>
       </c>
       <c r="L69">
-        <v>23</v>
+        <v>51</v>
       </c>
       <c r="M69">
-        <v>23</v>
+        <v>51</v>
       </c>
       <c r="N69">
         <v>1</v>
@@ -3302,163 +3101,241 @@
         <v>0</v>
       </c>
       <c r="Q69">
-        <v>403</v>
+        <v>850</v>
       </c>
     </row>
     <row r="70" spans="10:17">
       <c r="J70" s="1" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
       <c r="K70">
-        <v>0.05365853658536585</v>
+        <v>0.05108359133126935</v>
       </c>
       <c r="L70">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="M70">
-        <v>22</v>
+        <v>37</v>
       </c>
       <c r="N70">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="O70">
-        <v>0</v>
+        <v>0.11</v>
       </c>
       <c r="P70" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q70">
-        <v>388</v>
+        <v>613</v>
       </c>
     </row>
     <row r="71" spans="10:17">
       <c r="J71" s="1" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="K71">
-        <v>0.04761904761904762</v>
+        <v>0.04971098265895954</v>
       </c>
       <c r="L71">
-        <v>15</v>
+        <v>43</v>
       </c>
       <c r="M71">
-        <v>15</v>
+        <v>45</v>
       </c>
       <c r="N71">
-        <v>1</v>
+        <v>0.96</v>
       </c>
       <c r="O71">
-        <v>0</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="P71" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q71">
-        <v>300</v>
+        <v>822</v>
       </c>
     </row>
     <row r="72" spans="10:17">
       <c r="J72" s="1" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="K72">
-        <v>0.04279279279279279</v>
+        <v>0.04887218045112782</v>
       </c>
       <c r="L72">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M72">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="N72">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="O72">
-        <v>0</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="P72" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q72">
-        <v>425</v>
+        <v>253</v>
       </c>
     </row>
     <row r="73" spans="10:17">
       <c r="J73" s="1" t="s">
-        <v>39</v>
+        <v>104</v>
       </c>
       <c r="K73">
-        <v>0.02777777777777778</v>
+        <v>0.03514526710402999</v>
       </c>
       <c r="L73">
-        <v>31</v>
+        <v>75</v>
       </c>
       <c r="M73">
-        <v>38</v>
+        <v>84</v>
       </c>
       <c r="N73">
-        <v>0.82</v>
+        <v>0.89</v>
       </c>
       <c r="O73">
-        <v>0.18</v>
+        <v>0.11</v>
       </c>
       <c r="P73" t="b">
         <v>1</v>
       </c>
       <c r="Q73">
-        <v>1085</v>
+        <v>2059</v>
       </c>
     </row>
     <row r="74" spans="10:17">
       <c r="J74" s="1" t="s">
-        <v>38</v>
+        <v>105</v>
       </c>
       <c r="K74">
-        <v>0.01352221506761108</v>
+        <v>0.03292181069958848</v>
       </c>
       <c r="L74">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="M74">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="N74">
-        <v>0.66</v>
+        <v>1</v>
       </c>
       <c r="O74">
-        <v>0.34</v>
+        <v>0</v>
       </c>
       <c r="P74" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q74">
-        <v>1532</v>
+        <v>470</v>
       </c>
     </row>
     <row r="75" spans="10:17">
       <c r="J75" s="1" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="K75">
-        <v>0.0119496855345912</v>
+        <v>0.03136113805366958</v>
       </c>
       <c r="L75">
-        <v>19</v>
+        <v>97</v>
       </c>
       <c r="M75">
-        <v>26</v>
+        <v>111</v>
       </c>
       <c r="N75">
-        <v>0.73</v>
+        <v>0.87</v>
       </c>
       <c r="O75">
-        <v>0.27</v>
+        <v>0.13</v>
       </c>
       <c r="P75" t="b">
         <v>1</v>
       </c>
       <c r="Q75">
-        <v>1571</v>
+        <v>2996</v>
+      </c>
+    </row>
+    <row r="76" spans="10:17">
+      <c r="J76" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="K76">
+        <v>0.02277432712215321</v>
+      </c>
+      <c r="L76">
+        <v>22</v>
+      </c>
+      <c r="M76">
+        <v>24</v>
+      </c>
+      <c r="N76">
+        <v>0.92</v>
+      </c>
+      <c r="O76">
+        <v>0.07999999999999996</v>
+      </c>
+      <c r="P76" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q76">
+        <v>944</v>
+      </c>
+    </row>
+    <row r="77" spans="10:17">
+      <c r="J77" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="K77">
+        <v>0.02163687676387582</v>
+      </c>
+      <c r="L77">
+        <v>69</v>
+      </c>
+      <c r="M77">
+        <v>81</v>
+      </c>
+      <c r="N77">
+        <v>0.85</v>
+      </c>
+      <c r="O77">
+        <v>0.15</v>
+      </c>
+      <c r="P77" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q77">
+        <v>3120</v>
+      </c>
+    </row>
+    <row r="78" spans="10:17">
+      <c r="J78" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="K78">
+        <v>0.01813471502590673</v>
+      </c>
+      <c r="L78">
+        <v>21</v>
+      </c>
+      <c r="M78">
+        <v>24</v>
+      </c>
+      <c r="N78">
+        <v>0.88</v>
+      </c>
+      <c r="O78">
+        <v>0.12</v>
+      </c>
+      <c r="P78" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q78">
+        <v>1137</v>
       </c>
     </row>
   </sheetData>

--- a/results/mp/tinybert/corona/confidence/210/stop-words-0.5/avg_0.002_scores.xlsx
+++ b/results/mp/tinybert/corona/confidence/210/stop-words-0.5/avg_0.002_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="106">
   <si>
     <t>anchor score</t>
   </si>
@@ -40,304 +40,295 @@
     <t>name</t>
   </si>
   <si>
-    <t>killed</t>
-  </si>
-  <si>
-    <t>arrested</t>
-  </si>
-  <si>
     <t>crude</t>
   </si>
   <si>
+    <t>died</t>
+  </si>
+  <si>
+    <t>warning</t>
+  </si>
+  <si>
+    <t>fraud</t>
+  </si>
+  <si>
+    <t>crisis</t>
+  </si>
+  <si>
     <t>forced</t>
   </si>
   <si>
-    <t>fraud</t>
-  </si>
-  <si>
-    <t>died</t>
-  </si>
-  <si>
-    <t>crisis</t>
-  </si>
-  <si>
-    <t>warning</t>
-  </si>
-  <si>
-    <t>fear</t>
+    <t>shit</t>
+  </si>
+  <si>
+    <t>war</t>
+  </si>
+  <si>
+    <t>collapse</t>
+  </si>
+  <si>
+    <t>shame</t>
   </si>
   <si>
     <t>die</t>
   </si>
   <si>
-    <t>collapse</t>
-  </si>
-  <si>
-    <t>war</t>
-  </si>
-  <si>
-    <t>shit</t>
-  </si>
-  <si>
-    <t>shame</t>
+    <t>panic</t>
+  </si>
+  <si>
+    <t>emergency</t>
+  </si>
+  <si>
+    <t>fears</t>
   </si>
   <si>
     <t>avoid</t>
   </si>
   <si>
-    <t>emergency</t>
-  </si>
-  <si>
-    <t>fears</t>
-  </si>
-  <si>
-    <t>panic</t>
-  </si>
-  <si>
-    <t>risk</t>
-  </si>
-  <si>
     <t>sc</t>
   </si>
   <si>
     <t>low</t>
   </si>
   <si>
-    <t>empty</t>
-  </si>
-  <si>
     <t>stop</t>
   </si>
   <si>
     <t>demand</t>
   </si>
   <si>
+    <t>corona</t>
+  </si>
+  <si>
+    <t>negative</t>
+  </si>
+  <si>
+    <t>beauty</t>
+  </si>
+  <si>
+    <t>amazing</t>
+  </si>
+  <si>
+    <t>enjoy</t>
+  </si>
+  <si>
+    <t>strong</t>
+  </si>
+  <si>
+    <t>best</t>
+  </si>
+  <si>
+    <t>interesting</t>
+  </si>
+  <si>
+    <t>friend</t>
+  </si>
+  <si>
+    <t>love</t>
+  </si>
+  <si>
+    <t>nice</t>
+  </si>
+  <si>
+    <t>happy</t>
+  </si>
+  <si>
+    <t>great</t>
+  </si>
+  <si>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>thanks</t>
+  </si>
+  <si>
+    <t>heroes</t>
+  </si>
+  <si>
+    <t>special</t>
+  </si>
+  <si>
+    <t>safe</t>
+  </si>
+  <si>
+    <t>support</t>
+  </si>
+  <si>
+    <t>free</t>
+  </si>
+  <si>
+    <t>healthy</t>
+  </si>
+  <si>
+    <t>positive</t>
+  </si>
+  <si>
+    <t>friends</t>
+  </si>
+  <si>
+    <t>boost</t>
+  </si>
+  <si>
+    <t>confidence</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>ensure</t>
+  </si>
+  <si>
+    <t>safety</t>
+  </si>
+  <si>
+    <t>well</t>
+  </si>
+  <si>
+    <t>better</t>
+  </si>
+  <si>
+    <t>credit</t>
+  </si>
+  <si>
+    <t>fresh</t>
+  </si>
+  <si>
+    <t>relief</t>
+  </si>
+  <si>
+    <t>hand</t>
+  </si>
+  <si>
+    <t>dear</t>
+  </si>
+  <si>
+    <t>important</t>
+  </si>
+  <si>
+    <t>worth</t>
+  </si>
+  <si>
+    <t>energy</t>
+  </si>
+  <si>
+    <t>help</t>
+  </si>
+  <si>
+    <t>care</t>
+  </si>
+  <si>
+    <t>ready</t>
+  </si>
+  <si>
+    <t>like</t>
+  </si>
+  <si>
+    <t>save</t>
+  </si>
+  <si>
+    <t>gt</t>
+  </si>
+  <si>
+    <t>clean</t>
+  </si>
+  <si>
+    <t>hope</t>
+  </si>
+  <si>
+    <t>giving</t>
+  </si>
+  <si>
+    <t>increase</t>
+  </si>
+  <si>
+    <t>please</t>
+  </si>
+  <si>
+    <t>protect</t>
+  </si>
+  <si>
+    <t>sure</t>
+  </si>
+  <si>
+    <t>share</t>
+  </si>
+  <si>
+    <t>join</t>
+  </si>
+  <si>
+    <t>key</t>
+  </si>
+  <si>
+    <t>increased</t>
+  </si>
+  <si>
+    <t>helping</t>
+  </si>
+  <si>
+    <t>give</t>
+  </si>
+  <si>
+    <t>essential</t>
+  </si>
+  <si>
+    <t>online</t>
+  </si>
+  <si>
+    <t>news</t>
+  </si>
+  <si>
+    <t>retail</t>
+  </si>
+  <si>
+    <t>new</t>
+  </si>
+  <si>
+    <t>health</t>
+  </si>
+  <si>
+    <t>stock</t>
+  </si>
+  <si>
+    <t>make</t>
+  </si>
+  <si>
+    <t>store</t>
+  </si>
+  <si>
+    <t>stay</t>
+  </si>
+  <si>
+    <t>shopping</t>
+  </si>
+  <si>
+    <t>home</t>
+  </si>
+  <si>
+    <t>us</t>
+  </si>
+  <si>
+    <t>grocery</t>
+  </si>
+  <si>
+    <t>consumer</t>
+  </si>
+  <si>
+    <t>supermarket</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>san</t>
+  </si>
+  <si>
     <t>co</t>
   </si>
   <si>
-    <t>negative</t>
-  </si>
-  <si>
-    <t>enjoy</t>
-  </si>
-  <si>
-    <t>amazing</t>
-  </si>
-  <si>
-    <t>love</t>
-  </si>
-  <si>
-    <t>best</t>
-  </si>
-  <si>
-    <t>interesting</t>
-  </si>
-  <si>
-    <t>happy</t>
-  </si>
-  <si>
-    <t>strong</t>
-  </si>
-  <si>
-    <t>special</t>
-  </si>
-  <si>
-    <t>great</t>
-  </si>
-  <si>
-    <t>friend</t>
-  </si>
-  <si>
-    <t>positive</t>
-  </si>
-  <si>
-    <t>safety</t>
-  </si>
-  <si>
-    <t>thank</t>
-  </si>
-  <si>
-    <t>thanks</t>
-  </si>
-  <si>
-    <t>confidence</t>
-  </si>
-  <si>
-    <t>free</t>
-  </si>
-  <si>
-    <t>heroes</t>
-  </si>
-  <si>
-    <t>support</t>
-  </si>
-  <si>
-    <t>ensure</t>
-  </si>
-  <si>
-    <t>safe</t>
-  </si>
-  <si>
-    <t>boost</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>friends</t>
-  </si>
-  <si>
-    <t>nice</t>
-  </si>
-  <si>
-    <t>better</t>
-  </si>
-  <si>
-    <t>easy</t>
-  </si>
-  <si>
-    <t>healthy</t>
-  </si>
-  <si>
-    <t>relief</t>
-  </si>
-  <si>
-    <t>fresh</t>
-  </si>
-  <si>
-    <t>well</t>
-  </si>
-  <si>
-    <t>important</t>
-  </si>
-  <si>
-    <t>hand</t>
-  </si>
-  <si>
-    <t>dear</t>
-  </si>
-  <si>
-    <t>ready</t>
-  </si>
-  <si>
-    <t>energy</t>
-  </si>
-  <si>
-    <t>giving</t>
-  </si>
-  <si>
-    <t>like</t>
-  </si>
-  <si>
-    <t>credit</t>
-  </si>
-  <si>
-    <t>help</t>
-  </si>
-  <si>
-    <t>clean</t>
-  </si>
-  <si>
-    <t>hope</t>
-  </si>
-  <si>
-    <t>increase</t>
-  </si>
-  <si>
-    <t>care</t>
-  </si>
-  <si>
-    <t>protect</t>
-  </si>
-  <si>
-    <t>please</t>
-  </si>
-  <si>
-    <t>sure</t>
-  </si>
-  <si>
-    <t>save</t>
-  </si>
-  <si>
-    <t>join</t>
-  </si>
-  <si>
-    <t>share</t>
-  </si>
-  <si>
-    <t>alert</t>
-  </si>
-  <si>
-    <t>key</t>
-  </si>
-  <si>
-    <t>available</t>
-  </si>
-  <si>
-    <t>helping</t>
-  </si>
-  <si>
-    <t>increased</t>
-  </si>
-  <si>
-    <t>staff</t>
-  </si>
-  <si>
-    <t>essential</t>
-  </si>
-  <si>
-    <t>customers</t>
-  </si>
-  <si>
-    <t>local</t>
-  </si>
-  <si>
-    <t>make</t>
-  </si>
-  <si>
-    <t>retail</t>
-  </si>
-  <si>
-    <t>shopping</t>
-  </si>
-  <si>
-    <t>online</t>
-  </si>
-  <si>
-    <t>shop</t>
-  </si>
-  <si>
-    <t>new</t>
-  </si>
-  <si>
-    <t>store</t>
-  </si>
-  <si>
-    <t>stock</t>
-  </si>
-  <si>
-    <t>grocery</t>
-  </si>
-  <si>
-    <t>consumer</t>
-  </si>
-  <si>
-    <t>supermarket</t>
-  </si>
-  <si>
-    <t>us</t>
-  </si>
-  <si>
-    <t>19</t>
-  </si>
-  <si>
-    <t>san</t>
+    <t>toilet</t>
   </si>
   <si>
     <t>food</t>
-  </si>
-  <si>
-    <t>corona</t>
   </si>
   <si>
     <t>prices</t>
@@ -698,7 +689,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q78"/>
+  <dimension ref="A1:Q80"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -706,10 +697,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="J1" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -767,13 +758,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>1</v>
+        <v>0.7647058823529411</v>
       </c>
       <c r="C3">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="D3">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -785,10 +776,10 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -817,13 +808,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.8666666666666667</v>
+        <v>0.7307692307692307</v>
       </c>
       <c r="C4">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="D4">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -835,10 +826,10 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="K4">
         <v>1</v>
@@ -867,13 +858,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.8235294117647058</v>
+        <v>0.68</v>
       </c>
       <c r="C5">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="D5">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -885,19 +876,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="K5">
-        <v>0.9782608695652174</v>
+        <v>1</v>
       </c>
       <c r="L5">
-        <v>45</v>
+        <v>13</v>
       </c>
       <c r="M5">
-        <v>45</v>
+        <v>13</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -909,7 +900,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -917,13 +908,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.6896551724137931</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="C6">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="D6">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -935,19 +926,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="K6">
-        <v>0.9152542372881356</v>
+        <v>0.9545454545454546</v>
       </c>
       <c r="L6">
-        <v>54</v>
+        <v>21</v>
       </c>
       <c r="M6">
-        <v>54</v>
+        <v>21</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -959,7 +950,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -967,13 +958,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.6666666666666666</v>
+        <v>0.660958904109589</v>
       </c>
       <c r="C7">
-        <v>24</v>
+        <v>193</v>
       </c>
       <c r="D7">
-        <v>24</v>
+        <v>193</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -985,19 +976,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>12</v>
+        <v>99</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="K7">
-        <v>0.9090909090909091</v>
+        <v>0.9491525423728814</v>
       </c>
       <c r="L7">
-        <v>30</v>
+        <v>56</v>
       </c>
       <c r="M7">
-        <v>30</v>
+        <v>56</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -1017,13 +1008,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.6538461538461539</v>
+        <v>0.6206896551724138</v>
       </c>
       <c r="C8">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D8">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -1035,19 +1026,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="K8">
-        <v>0.8846153846153846</v>
+        <v>0.9393939393939394</v>
       </c>
       <c r="L8">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="M8">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -1059,7 +1050,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1067,13 +1058,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.6301369863013698</v>
+        <v>0.4615384615384616</v>
       </c>
       <c r="C9">
-        <v>184</v>
+        <v>18</v>
       </c>
       <c r="D9">
-        <v>184</v>
+        <v>18</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -1085,19 +1076,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>108</v>
+        <v>21</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="K9">
-        <v>0.8636363636363636</v>
+        <v>0.8947368421052632</v>
       </c>
       <c r="L9">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="M9">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -1109,7 +1100,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1117,13 +1108,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.6</v>
+        <v>0.4473684210526316</v>
       </c>
       <c r="C10">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D10">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1135,19 +1126,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="J10" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="K10">
+        <v>0.8913043478260869</v>
+      </c>
+      <c r="L10">
         <v>41</v>
       </c>
-      <c r="K10">
-        <v>0.8611111111111112</v>
-      </c>
-      <c r="L10">
-        <v>31</v>
-      </c>
       <c r="M10">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1167,7 +1158,7 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.5</v>
+        <v>0.4333333333333333</v>
       </c>
       <c r="C11">
         <v>13</v>
@@ -1185,19 +1176,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="K11">
-        <v>0.8482142857142857</v>
+        <v>0.8888888888888888</v>
       </c>
       <c r="L11">
-        <v>95</v>
+        <v>24</v>
       </c>
       <c r="M11">
-        <v>95</v>
+        <v>24</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1209,7 +1200,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>17</v>
+        <v>3</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1217,13 +1208,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.4594594594594595</v>
+        <v>0.3783783783783784</v>
       </c>
       <c r="C12">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D12">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1235,19 +1226,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="K12">
-        <v>0.8421052631578947</v>
+        <v>0.8846153846153846</v>
       </c>
       <c r="L12">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="M12">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1267,7 +1258,7 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.4333333333333333</v>
+        <v>0.3513513513513514</v>
       </c>
       <c r="C13">
         <v>13</v>
@@ -1285,19 +1276,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="K13">
-        <v>0.7931034482758621</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="L13">
-        <v>46</v>
+        <v>96</v>
       </c>
       <c r="M13">
-        <v>46</v>
+        <v>96</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1309,7 +1300,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1317,13 +1308,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.3947368421052632</v>
+        <v>0.3158914728682171</v>
       </c>
       <c r="C14">
-        <v>15</v>
+        <v>163</v>
       </c>
       <c r="D14">
-        <v>15</v>
+        <v>163</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1335,19 +1326,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>23</v>
+        <v>353</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="K14">
-        <v>0.7843137254901961</v>
+        <v>0.8359375</v>
       </c>
       <c r="L14">
-        <v>40</v>
+        <v>107</v>
       </c>
       <c r="M14">
-        <v>40</v>
+        <v>107</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1359,7 +1350,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>11</v>
+        <v>21</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1367,13 +1358,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.3846153846153846</v>
+        <v>0.3066666666666666</v>
       </c>
       <c r="C15">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="D15">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1385,19 +1376,19 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>24</v>
+        <v>52</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="K15">
-        <v>0.78125</v>
+        <v>0.8292682926829268</v>
       </c>
       <c r="L15">
-        <v>100</v>
+        <v>68</v>
       </c>
       <c r="M15">
-        <v>100</v>
+        <v>68</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1409,7 +1400,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>28</v>
+        <v>14</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1417,13 +1408,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.3513513513513514</v>
+        <v>0.2941176470588235</v>
       </c>
       <c r="C16">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D16">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1435,19 +1426,19 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="K16">
-        <v>0.7804878048780488</v>
+        <v>0.8085106382978723</v>
       </c>
       <c r="L16">
-        <v>64</v>
+        <v>38</v>
       </c>
       <c r="M16">
-        <v>64</v>
+        <v>38</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1459,7 +1450,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>18</v>
+        <v>9</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1467,13 +1458,13 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.3454545454545455</v>
+        <v>0.2545454545454545</v>
       </c>
       <c r="C17">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="D17">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1485,19 +1476,19 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="K17">
-        <v>0.7777777777777778</v>
+        <v>0.8055555555555556</v>
       </c>
       <c r="L17">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="M17">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1509,7 +1500,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1517,13 +1508,13 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.32</v>
+        <v>0.2433862433862434</v>
       </c>
       <c r="C18">
-        <v>24</v>
+        <v>46</v>
       </c>
       <c r="D18">
-        <v>24</v>
+        <v>46</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1535,19 +1526,19 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>51</v>
+        <v>143</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="K18">
-        <v>0.7666666666666667</v>
+        <v>0.7816901408450704</v>
       </c>
       <c r="L18">
-        <v>92</v>
+        <v>111</v>
       </c>
       <c r="M18">
-        <v>92</v>
+        <v>111</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1559,7 +1550,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>28</v>
+        <v>31</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -1567,13 +1558,13 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.3137254901960784</v>
+        <v>0.1946308724832215</v>
       </c>
       <c r="C19">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="D19">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1585,19 +1576,19 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>35</v>
+        <v>120</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="K19">
-        <v>0.7659574468085106</v>
+        <v>0.7641509433962265</v>
       </c>
       <c r="L19">
-        <v>36</v>
+        <v>81</v>
       </c>
       <c r="M19">
-        <v>36</v>
+        <v>81</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1609,7 +1600,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>11</v>
+        <v>25</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -1617,13 +1608,13 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.3003875968992248</v>
+        <v>0.1388888888888889</v>
       </c>
       <c r="C20">
-        <v>155</v>
+        <v>35</v>
       </c>
       <c r="D20">
-        <v>155</v>
+        <v>35</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1635,19 +1626,19 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>361</v>
+        <v>217</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="K20">
-        <v>0.7547169811320755</v>
+        <v>0.75</v>
       </c>
       <c r="L20">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="M20">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1659,7 +1650,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>26</v>
+        <v>30</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -1667,37 +1658,37 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.2727272727272727</v>
+        <v>0.04838709677419355</v>
       </c>
       <c r="C21">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D21">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E21">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="F21">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="G21" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H21">
-        <v>56</v>
+        <v>354</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="K21">
-        <v>0.75</v>
+        <v>0.7407407407407407</v>
       </c>
       <c r="L21">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="M21">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1709,7 +1700,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -1717,313 +1708,193 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.2169312169312169</v>
+        <v>0.006035578144853875</v>
       </c>
       <c r="C22">
-        <v>41</v>
+        <v>19</v>
       </c>
       <c r="D22">
-        <v>41</v>
+        <v>72</v>
       </c>
       <c r="E22">
-        <v>0</v>
+        <v>0.74</v>
       </c>
       <c r="F22">
-        <v>1</v>
+        <v>0.26</v>
       </c>
       <c r="G22" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H22">
-        <v>148</v>
+        <v>3129</v>
       </c>
       <c r="J22" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="K22">
+        <v>0.7241379310344828</v>
+      </c>
+      <c r="L22">
+        <v>42</v>
+      </c>
+      <c r="M22">
+        <v>42</v>
+      </c>
+      <c r="N22">
+        <v>1</v>
+      </c>
+      <c r="O22">
+        <v>0</v>
+      </c>
+      <c r="P22" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q22">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
+      <c r="J23" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="K23">
+        <v>0.7142857142857143</v>
+      </c>
+      <c r="L23">
+        <v>20</v>
+      </c>
+      <c r="M23">
+        <v>20</v>
+      </c>
+      <c r="N23">
+        <v>1</v>
+      </c>
+      <c r="O23">
+        <v>0</v>
+      </c>
+      <c r="P23" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q23">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
+      <c r="J24" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="K24">
+        <v>0.6956521739130435</v>
+      </c>
+      <c r="L24">
+        <v>16</v>
+      </c>
+      <c r="M24">
+        <v>16</v>
+      </c>
+      <c r="N24">
+        <v>1</v>
+      </c>
+      <c r="O24">
+        <v>0</v>
+      </c>
+      <c r="P24" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q24">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
+      <c r="J25" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="K25">
+        <v>0.6944444444444444</v>
+      </c>
+      <c r="L25">
+        <v>25</v>
+      </c>
+      <c r="M25">
+        <v>25</v>
+      </c>
+      <c r="N25">
+        <v>1</v>
+      </c>
+      <c r="O25">
+        <v>0</v>
+      </c>
+      <c r="P25" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q25">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17">
+      <c r="J26" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="K26">
+        <v>0.69375</v>
+      </c>
+      <c r="L26">
+        <v>111</v>
+      </c>
+      <c r="M26">
+        <v>111</v>
+      </c>
+      <c r="N26">
+        <v>1</v>
+      </c>
+      <c r="O26">
+        <v>0</v>
+      </c>
+      <c r="P26" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q26">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17">
+      <c r="J27" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="K22">
-        <v>0.7464788732394366</v>
-      </c>
-      <c r="L22">
-        <v>106</v>
-      </c>
-      <c r="M22">
-        <v>106</v>
-      </c>
-      <c r="N22">
-        <v>1</v>
-      </c>
-      <c r="O22">
-        <v>0</v>
-      </c>
-      <c r="P22" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q22">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
-      <c r="A23" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B23">
-        <v>0.1946308724832215</v>
-      </c>
-      <c r="C23">
-        <v>29</v>
-      </c>
-      <c r="D23">
-        <v>29</v>
-      </c>
-      <c r="E23">
-        <v>0</v>
-      </c>
-      <c r="F23">
-        <v>1</v>
-      </c>
-      <c r="G23" t="b">
-        <v>0</v>
-      </c>
-      <c r="H23">
-        <v>120</v>
-      </c>
-      <c r="J23" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="K23">
-        <v>0.7391304347826086</v>
-      </c>
-      <c r="L23">
-        <v>17</v>
-      </c>
-      <c r="M23">
-        <v>17</v>
-      </c>
-      <c r="N23">
-        <v>1</v>
-      </c>
-      <c r="O23">
-        <v>0</v>
-      </c>
-      <c r="P23" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q23">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
-      <c r="A24" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B24">
-        <v>0.1444444444444444</v>
-      </c>
-      <c r="C24">
-        <v>13</v>
-      </c>
-      <c r="D24">
-        <v>13</v>
-      </c>
-      <c r="E24">
-        <v>0</v>
-      </c>
-      <c r="F24">
-        <v>1</v>
-      </c>
-      <c r="G24" t="b">
-        <v>0</v>
-      </c>
-      <c r="H24">
-        <v>77</v>
-      </c>
-      <c r="J24" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="K24">
-        <v>0.71875</v>
-      </c>
-      <c r="L24">
-        <v>115</v>
-      </c>
-      <c r="M24">
-        <v>115</v>
-      </c>
-      <c r="N24">
-        <v>1</v>
-      </c>
-      <c r="O24">
-        <v>0</v>
-      </c>
-      <c r="P24" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q24">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
-      <c r="A25" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B25">
-        <v>0.1349206349206349</v>
-      </c>
-      <c r="C25">
-        <v>34</v>
-      </c>
-      <c r="D25">
-        <v>34</v>
-      </c>
-      <c r="E25">
-        <v>0</v>
-      </c>
-      <c r="F25">
-        <v>1</v>
-      </c>
-      <c r="G25" t="b">
-        <v>0</v>
-      </c>
-      <c r="H25">
-        <v>218</v>
-      </c>
-      <c r="J25" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="K25">
-        <v>0.7142857142857143</v>
-      </c>
-      <c r="L25">
-        <v>20</v>
-      </c>
-      <c r="M25">
-        <v>20</v>
-      </c>
-      <c r="N25">
-        <v>1</v>
-      </c>
-      <c r="O25">
-        <v>0</v>
-      </c>
-      <c r="P25" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q25">
+      <c r="K27">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="L27">
+        <v>16</v>
+      </c>
+      <c r="M27">
+        <v>16</v>
+      </c>
+      <c r="N27">
+        <v>1</v>
+      </c>
+      <c r="O27">
+        <v>0</v>
+      </c>
+      <c r="P27" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q27">
         <v>8</v>
-      </c>
-    </row>
-    <row r="26" spans="1:17">
-      <c r="A26" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B26">
-        <v>0.06166219839142091</v>
-      </c>
-      <c r="C26">
-        <v>23</v>
-      </c>
-      <c r="D26">
-        <v>23</v>
-      </c>
-      <c r="E26">
-        <v>0</v>
-      </c>
-      <c r="F26">
-        <v>1</v>
-      </c>
-      <c r="G26" t="b">
-        <v>0</v>
-      </c>
-      <c r="H26">
-        <v>350</v>
-      </c>
-      <c r="J26" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="K26">
-        <v>0.7037037037037037</v>
-      </c>
-      <c r="L26">
-        <v>19</v>
-      </c>
-      <c r="M26">
-        <v>19</v>
-      </c>
-      <c r="N26">
-        <v>1</v>
-      </c>
-      <c r="O26">
-        <v>0</v>
-      </c>
-      <c r="P26" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q26">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="27" spans="1:17">
-      <c r="A27" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B27">
-        <v>0.004651162790697674</v>
-      </c>
-      <c r="C27">
-        <v>14</v>
-      </c>
-      <c r="D27">
-        <v>111</v>
-      </c>
-      <c r="E27">
-        <v>0.87</v>
-      </c>
-      <c r="F27">
-        <v>0.13</v>
-      </c>
-      <c r="G27" t="b">
-        <v>1</v>
-      </c>
-      <c r="H27">
-        <v>2996</v>
-      </c>
-      <c r="J27" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="K27">
-        <v>0.6984126984126984</v>
-      </c>
-      <c r="L27">
-        <v>44</v>
-      </c>
-      <c r="M27">
-        <v>44</v>
-      </c>
-      <c r="N27">
-        <v>1</v>
-      </c>
-      <c r="O27">
-        <v>0</v>
-      </c>
-      <c r="P27" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q27">
-        <v>19</v>
       </c>
     </row>
     <row r="28" spans="1:17">
       <c r="J28" s="1" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="K28">
-        <v>0.6842105263157895</v>
+        <v>0.6470588235294118</v>
       </c>
       <c r="L28">
-        <v>13</v>
+        <v>33</v>
       </c>
       <c r="M28">
-        <v>13</v>
+        <v>33</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -2035,21 +1906,21 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>6</v>
+        <v>18</v>
       </c>
     </row>
     <row r="29" spans="1:17">
       <c r="J29" s="1" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="K29">
-        <v>0.6666666666666666</v>
+        <v>0.6276595744680851</v>
       </c>
       <c r="L29">
-        <v>18</v>
+        <v>59</v>
       </c>
       <c r="M29">
-        <v>18</v>
+        <v>59</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -2061,21 +1932,21 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>9</v>
+        <v>35</v>
       </c>
     </row>
     <row r="30" spans="1:17">
       <c r="J30" s="1" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="K30">
-        <v>0.66</v>
+        <v>0.6190476190476191</v>
       </c>
       <c r="L30">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="M30">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -2087,21 +1958,21 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="31" spans="1:17">
       <c r="J31" s="1" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="K31">
-        <v>0.6458333333333334</v>
+        <v>0.6176470588235294</v>
       </c>
       <c r="L31">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="M31">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -2113,21 +1984,21 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="32" spans="1:17">
       <c r="J32" s="1" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="K32">
-        <v>0.6276595744680851</v>
+        <v>0.6041666666666666</v>
       </c>
       <c r="L32">
-        <v>59</v>
+        <v>29</v>
       </c>
       <c r="M32">
-        <v>59</v>
+        <v>29</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -2139,21 +2010,21 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>35</v>
+        <v>19</v>
       </c>
     </row>
     <row r="33" spans="10:17">
       <c r="J33" s="1" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="K33">
-        <v>0.6222222222222222</v>
+        <v>0.6</v>
       </c>
       <c r="L33">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M33">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -2165,21 +2036,21 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="34" spans="10:17">
       <c r="J34" s="1" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="K34">
-        <v>0.6083550913838121</v>
+        <v>0.5744125326370757</v>
       </c>
       <c r="L34">
-        <v>233</v>
+        <v>220</v>
       </c>
       <c r="M34">
-        <v>233</v>
+        <v>220</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -2191,21 +2062,21 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>150</v>
+        <v>163</v>
       </c>
     </row>
     <row r="35" spans="10:17">
       <c r="J35" s="1" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="K35">
-        <v>0.6071428571428571</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="L35">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M35">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="N35">
         <v>1</v>
@@ -2217,21 +2088,21 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="36" spans="10:17">
       <c r="J36" s="1" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="K36">
-        <v>0.6071428571428571</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="L36">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="M36">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="N36">
         <v>1</v>
@@ -2243,21 +2114,21 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>11</v>
+        <v>20</v>
       </c>
     </row>
     <row r="37" spans="10:17">
       <c r="J37" s="1" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="K37">
-        <v>0.575</v>
+        <v>0.5416666666666666</v>
       </c>
       <c r="L37">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="M37">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="N37">
         <v>1</v>
@@ -2269,21 +2140,21 @@
         <v>0</v>
       </c>
       <c r="Q37">
-        <v>17</v>
+        <v>11</v>
       </c>
     </row>
     <row r="38" spans="10:17">
       <c r="J38" s="1" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="K38">
-        <v>0.5151515151515151</v>
+        <v>0.525</v>
       </c>
       <c r="L38">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="M38">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="N38">
         <v>1</v>
@@ -2295,21 +2166,21 @@
         <v>0</v>
       </c>
       <c r="Q38">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="39" spans="10:17">
       <c r="J39" s="1" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="K39">
-        <v>0.5029411764705882</v>
+        <v>0.5118644067796611</v>
       </c>
       <c r="L39">
-        <v>171</v>
+        <v>151</v>
       </c>
       <c r="M39">
-        <v>171</v>
+        <v>151</v>
       </c>
       <c r="N39">
         <v>1</v>
@@ -2321,21 +2192,21 @@
         <v>0</v>
       </c>
       <c r="Q39">
-        <v>169</v>
+        <v>144</v>
       </c>
     </row>
     <row r="40" spans="10:17">
       <c r="J40" s="1" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="K40">
-        <v>0.5</v>
+        <v>0.5056179775280899</v>
       </c>
       <c r="L40">
-        <v>17</v>
+        <v>45</v>
       </c>
       <c r="M40">
-        <v>17</v>
+        <v>45</v>
       </c>
       <c r="N40">
         <v>1</v>
@@ -2347,21 +2218,21 @@
         <v>0</v>
       </c>
       <c r="Q40">
-        <v>17</v>
+        <v>44</v>
       </c>
     </row>
     <row r="41" spans="10:17">
       <c r="J41" s="1" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="K41">
-        <v>0.488135593220339</v>
+        <v>0.5</v>
       </c>
       <c r="L41">
-        <v>144</v>
+        <v>14</v>
       </c>
       <c r="M41">
-        <v>144</v>
+        <v>14</v>
       </c>
       <c r="N41">
         <v>1</v>
@@ -2373,21 +2244,21 @@
         <v>0</v>
       </c>
       <c r="Q41">
-        <v>151</v>
+        <v>14</v>
       </c>
     </row>
     <row r="42" spans="10:17">
       <c r="J42" s="1" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="K42">
-        <v>0.4838709677419355</v>
+        <v>0.4970588235294118</v>
       </c>
       <c r="L42">
-        <v>15</v>
+        <v>169</v>
       </c>
       <c r="M42">
-        <v>15</v>
+        <v>169</v>
       </c>
       <c r="N42">
         <v>1</v>
@@ -2399,21 +2270,21 @@
         <v>0</v>
       </c>
       <c r="Q42">
-        <v>16</v>
+        <v>171</v>
       </c>
     </row>
     <row r="43" spans="10:17">
       <c r="J43" s="1" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="K43">
-        <v>0.4769230769230769</v>
+        <v>0.4857142857142857</v>
       </c>
       <c r="L43">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="M43">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="N43">
         <v>1</v>
@@ -2425,21 +2296,21 @@
         <v>0</v>
       </c>
       <c r="Q43">
-        <v>34</v>
+        <v>18</v>
       </c>
     </row>
     <row r="44" spans="10:17">
       <c r="J44" s="1" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="K44">
-        <v>0.4615384615384616</v>
+        <v>0.475</v>
       </c>
       <c r="L44">
-        <v>36</v>
+        <v>19</v>
       </c>
       <c r="M44">
-        <v>36</v>
+        <v>19</v>
       </c>
       <c r="N44">
         <v>1</v>
@@ -2451,21 +2322,21 @@
         <v>0</v>
       </c>
       <c r="Q44">
-        <v>42</v>
+        <v>21</v>
       </c>
     </row>
     <row r="45" spans="10:17">
       <c r="J45" s="1" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="K45">
-        <v>0.4606741573033708</v>
+        <v>0.4516129032258064</v>
       </c>
       <c r="L45">
-        <v>41</v>
+        <v>14</v>
       </c>
       <c r="M45">
-        <v>41</v>
+        <v>14</v>
       </c>
       <c r="N45">
         <v>1</v>
@@ -2477,21 +2348,21 @@
         <v>0</v>
       </c>
       <c r="Q45">
-        <v>48</v>
+        <v>17</v>
       </c>
     </row>
     <row r="46" spans="10:17">
       <c r="J46" s="1" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="K46">
-        <v>0.4383561643835616</v>
+        <v>0.4461538461538462</v>
       </c>
       <c r="L46">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="M46">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="N46">
         <v>1</v>
@@ -2503,21 +2374,21 @@
         <v>0</v>
       </c>
       <c r="Q46">
-        <v>41</v>
+        <v>36</v>
       </c>
     </row>
     <row r="47" spans="10:17">
       <c r="J47" s="1" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="K47">
-        <v>0.4225941422594142</v>
+        <v>0.4242424242424243</v>
       </c>
       <c r="L47">
-        <v>101</v>
+        <v>14</v>
       </c>
       <c r="M47">
-        <v>101</v>
+        <v>14</v>
       </c>
       <c r="N47">
         <v>1</v>
@@ -2529,21 +2400,21 @@
         <v>0</v>
       </c>
       <c r="Q47">
-        <v>138</v>
+        <v>19</v>
       </c>
     </row>
     <row r="48" spans="10:17">
       <c r="J48" s="1" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="K48">
-        <v>0.40625</v>
+        <v>0.4230769230769231</v>
       </c>
       <c r="L48">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="M48">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="N48">
         <v>1</v>
@@ -2555,21 +2426,21 @@
         <v>0</v>
       </c>
       <c r="Q48">
-        <v>38</v>
+        <v>45</v>
       </c>
     </row>
     <row r="49" spans="10:17">
       <c r="J49" s="1" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="K49">
-        <v>0.4</v>
+        <v>0.4142259414225942</v>
       </c>
       <c r="L49">
-        <v>14</v>
+        <v>99</v>
       </c>
       <c r="M49">
-        <v>14</v>
+        <v>99</v>
       </c>
       <c r="N49">
         <v>1</v>
@@ -2581,21 +2452,21 @@
         <v>0</v>
       </c>
       <c r="Q49">
-        <v>21</v>
+        <v>140</v>
       </c>
     </row>
     <row r="50" spans="10:17">
       <c r="J50" s="1" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="K50">
-        <v>0.3953488372093023</v>
+        <v>0.3972602739726027</v>
       </c>
       <c r="L50">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="M50">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="N50">
         <v>1</v>
@@ -2607,21 +2478,21 @@
         <v>0</v>
       </c>
       <c r="Q50">
-        <v>26</v>
+        <v>44</v>
       </c>
     </row>
     <row r="51" spans="10:17">
       <c r="J51" s="1" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="K51">
-        <v>0.3714285714285714</v>
+        <v>0.390625</v>
       </c>
       <c r="L51">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="M51">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="N51">
         <v>1</v>
@@ -2633,21 +2504,21 @@
         <v>0</v>
       </c>
       <c r="Q51">
-        <v>44</v>
+        <v>39</v>
       </c>
     </row>
     <row r="52" spans="10:17">
       <c r="J52" s="1" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="K52">
-        <v>0.3571428571428572</v>
+        <v>0.3857142857142857</v>
       </c>
       <c r="L52">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="M52">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="N52">
         <v>1</v>
@@ -2659,15 +2530,15 @@
         <v>0</v>
       </c>
       <c r="Q52">
-        <v>27</v>
+        <v>43</v>
       </c>
     </row>
     <row r="53" spans="10:17">
       <c r="J53" s="1" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="K53">
-        <v>0.3191489361702128</v>
+        <v>0.3488372093023256</v>
       </c>
       <c r="L53">
         <v>15</v>
@@ -2685,21 +2556,21 @@
         <v>0</v>
       </c>
       <c r="Q53">
-        <v>32</v>
+        <v>28</v>
       </c>
     </row>
     <row r="54" spans="10:17">
       <c r="J54" s="1" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="K54">
-        <v>0.2542372881355932</v>
+        <v>0.2978723404255319</v>
       </c>
       <c r="L54">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="M54">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="N54">
         <v>1</v>
@@ -2711,21 +2582,21 @@
         <v>0</v>
       </c>
       <c r="Q54">
-        <v>44</v>
+        <v>33</v>
       </c>
     </row>
     <row r="55" spans="10:17">
       <c r="J55" s="1" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="K55">
-        <v>0.2542372881355932</v>
+        <v>0.25</v>
       </c>
       <c r="L55">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="M55">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="N55">
         <v>1</v>
@@ -2737,21 +2608,21 @@
         <v>0</v>
       </c>
       <c r="Q55">
-        <v>44</v>
+        <v>54</v>
       </c>
     </row>
     <row r="56" spans="10:17">
       <c r="J56" s="1" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="K56">
-        <v>0.2361111111111111</v>
+        <v>0.2203389830508475</v>
       </c>
       <c r="L56">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="M56">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="N56">
         <v>1</v>
@@ -2763,21 +2634,21 @@
         <v>0</v>
       </c>
       <c r="Q56">
-        <v>55</v>
+        <v>46</v>
       </c>
     </row>
     <row r="57" spans="10:17">
       <c r="J57" s="1" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="K57">
-        <v>0.1649484536082474</v>
+        <v>0.2131147540983606</v>
       </c>
       <c r="L57">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="M57">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="N57">
         <v>1</v>
@@ -2789,21 +2660,21 @@
         <v>0</v>
       </c>
       <c r="Q57">
-        <v>81</v>
+        <v>48</v>
       </c>
     </row>
     <row r="58" spans="10:17">
       <c r="J58" s="1" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="K58">
-        <v>0.1417322834645669</v>
+        <v>0.1496062992125984</v>
       </c>
       <c r="L58">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="M58">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="N58">
         <v>1</v>
@@ -2815,73 +2686,73 @@
         <v>0</v>
       </c>
       <c r="Q58">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="59" spans="10:17">
       <c r="J59" s="1" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="K59">
-        <v>0.1386138613861386</v>
+        <v>0.1151079136690648</v>
       </c>
       <c r="L59">
-        <v>14</v>
+        <v>48</v>
       </c>
       <c r="M59">
-        <v>14</v>
+        <v>49</v>
       </c>
       <c r="N59">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="O59">
-        <v>0</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="P59" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q59">
-        <v>87</v>
+        <v>369</v>
       </c>
     </row>
     <row r="60" spans="10:17">
       <c r="J60" s="1" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="K60">
-        <v>0.1288343558282209</v>
+        <v>0.1136363636363636</v>
       </c>
       <c r="L60">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="M60">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="N60">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="O60">
-        <v>0</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="P60" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q60">
-        <v>142</v>
+        <v>117</v>
       </c>
     </row>
     <row r="61" spans="10:17">
       <c r="J61" s="1" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="K61">
-        <v>0.103030303030303</v>
+        <v>0.1132075471698113</v>
       </c>
       <c r="L61">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="M61">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="N61">
         <v>1</v>
@@ -2893,99 +2764,99 @@
         <v>0</v>
       </c>
       <c r="Q61">
-        <v>148</v>
+        <v>141</v>
       </c>
     </row>
     <row r="62" spans="10:17">
       <c r="J62" s="1" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="K62">
-        <v>0.1006289308176101</v>
+        <v>0.102803738317757</v>
       </c>
       <c r="L62">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="M62">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="N62">
-        <v>1</v>
+        <v>0.96</v>
       </c>
       <c r="O62">
-        <v>0</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="P62" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q62">
-        <v>143</v>
+        <v>192</v>
       </c>
     </row>
     <row r="63" spans="10:17">
       <c r="J63" s="1" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="K63">
-        <v>0.0966183574879227</v>
+        <v>0.09923664122137404</v>
       </c>
       <c r="L63">
-        <v>40</v>
+        <v>13</v>
       </c>
       <c r="M63">
-        <v>42</v>
+        <v>13</v>
       </c>
       <c r="N63">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="O63">
-        <v>0.05000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P63" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q63">
-        <v>374</v>
+        <v>118</v>
       </c>
     </row>
     <row r="64" spans="10:17">
       <c r="J64" s="1" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="K64">
-        <v>0.09592326139088729</v>
+        <v>0.0856269113149847</v>
       </c>
       <c r="L64">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="M64">
-        <v>41</v>
+        <v>28</v>
       </c>
       <c r="N64">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="O64">
-        <v>0.02000000000000002</v>
+        <v>0</v>
       </c>
       <c r="P64" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q64">
-        <v>377</v>
+        <v>299</v>
       </c>
     </row>
     <row r="65" spans="10:17">
       <c r="J65" s="1" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="K65">
-        <v>0.08648648648648649</v>
+        <v>0.07878787878787878</v>
       </c>
       <c r="L65">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="M65">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="N65">
         <v>1</v>
@@ -2997,47 +2868,47 @@
         <v>0</v>
       </c>
       <c r="Q65">
-        <v>169</v>
+        <v>152</v>
       </c>
     </row>
     <row r="66" spans="10:17">
       <c r="J66" s="1" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="K66">
-        <v>0.06976744186046512</v>
+        <v>0.0761478163493841</v>
       </c>
       <c r="L66">
-        <v>15</v>
+        <v>68</v>
       </c>
       <c r="M66">
-        <v>15</v>
+        <v>69</v>
       </c>
       <c r="N66">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="O66">
-        <v>0</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="P66" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q66">
-        <v>200</v>
+        <v>825</v>
       </c>
     </row>
     <row r="67" spans="10:17">
       <c r="J67" s="1" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="K67">
-        <v>0.06823266219239374</v>
+        <v>0.06493506493506493</v>
       </c>
       <c r="L67">
-        <v>61</v>
+        <v>20</v>
       </c>
       <c r="M67">
-        <v>61</v>
+        <v>20</v>
       </c>
       <c r="N67">
         <v>1</v>
@@ -3049,21 +2920,21 @@
         <v>0</v>
       </c>
       <c r="Q67">
-        <v>833</v>
+        <v>288</v>
       </c>
     </row>
     <row r="68" spans="10:17">
       <c r="J68" s="1" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="K68">
-        <v>0.06422018348623854</v>
+        <v>0.06490384615384616</v>
       </c>
       <c r="L68">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="M68">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="N68">
         <v>1</v>
@@ -3075,21 +2946,21 @@
         <v>0</v>
       </c>
       <c r="Q68">
-        <v>306</v>
+        <v>389</v>
       </c>
     </row>
     <row r="69" spans="10:17">
       <c r="J69" s="1" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="K69">
-        <v>0.05660377358490566</v>
+        <v>0.06046511627906977</v>
       </c>
       <c r="L69">
-        <v>51</v>
+        <v>13</v>
       </c>
       <c r="M69">
-        <v>51</v>
+        <v>13</v>
       </c>
       <c r="N69">
         <v>1</v>
@@ -3101,241 +2972,293 @@
         <v>0</v>
       </c>
       <c r="Q69">
-        <v>850</v>
+        <v>202</v>
       </c>
     </row>
     <row r="70" spans="10:17">
       <c r="J70" s="1" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="K70">
-        <v>0.05108359133126935</v>
+        <v>0.06015037593984962</v>
       </c>
       <c r="L70">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="M70">
-        <v>37</v>
+        <v>17</v>
       </c>
       <c r="N70">
-        <v>0.89</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="O70">
-        <v>0.11</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="P70" t="b">
         <v>1</v>
       </c>
       <c r="Q70">
-        <v>613</v>
+        <v>250</v>
       </c>
     </row>
     <row r="71" spans="10:17">
       <c r="J71" s="1" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="K71">
-        <v>0.04971098265895954</v>
+        <v>0.05993340732519423</v>
       </c>
       <c r="L71">
-        <v>43</v>
+        <v>54</v>
       </c>
       <c r="M71">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="N71">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="O71">
-        <v>0.04000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P71" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q71">
-        <v>822</v>
+        <v>847</v>
       </c>
     </row>
     <row r="72" spans="10:17">
       <c r="J72" s="1" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="K72">
-        <v>0.04887218045112782</v>
+        <v>0.05255023183925812</v>
       </c>
       <c r="L72">
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="M72">
-        <v>14</v>
+        <v>37</v>
       </c>
       <c r="N72">
-        <v>0.93</v>
+        <v>0.92</v>
       </c>
       <c r="O72">
-        <v>0.06999999999999995</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="P72" t="b">
         <v>1</v>
       </c>
       <c r="Q72">
-        <v>253</v>
+        <v>613</v>
       </c>
     </row>
     <row r="73" spans="10:17">
       <c r="J73" s="1" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="K73">
-        <v>0.03514526710402999</v>
+        <v>0.04849884526558892</v>
       </c>
       <c r="L73">
-        <v>75</v>
+        <v>42</v>
       </c>
       <c r="M73">
-        <v>84</v>
+        <v>43</v>
       </c>
       <c r="N73">
-        <v>0.89</v>
+        <v>0.98</v>
       </c>
       <c r="O73">
-        <v>0.11</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="P73" t="b">
         <v>1</v>
       </c>
       <c r="Q73">
-        <v>2059</v>
+        <v>824</v>
       </c>
     </row>
     <row r="74" spans="10:17">
       <c r="J74" s="1" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="K74">
-        <v>0.03292181069958848</v>
+        <v>0.04260299625468165</v>
       </c>
       <c r="L74">
-        <v>16</v>
+        <v>91</v>
       </c>
       <c r="M74">
-        <v>16</v>
+        <v>98</v>
       </c>
       <c r="N74">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="O74">
-        <v>0</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="P74" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q74">
-        <v>470</v>
+        <v>2045</v>
       </c>
     </row>
     <row r="75" spans="10:17">
       <c r="J75" s="1" t="s">
-        <v>32</v>
+        <v>101</v>
       </c>
       <c r="K75">
-        <v>0.03136113805366958</v>
+        <v>0.03917525773195876</v>
       </c>
       <c r="L75">
-        <v>97</v>
+        <v>19</v>
       </c>
       <c r="M75">
-        <v>111</v>
+        <v>20</v>
       </c>
       <c r="N75">
-        <v>0.87</v>
+        <v>0.95</v>
       </c>
       <c r="O75">
-        <v>0.13</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="P75" t="b">
         <v>1</v>
       </c>
       <c r="Q75">
-        <v>2996</v>
+        <v>466</v>
       </c>
     </row>
     <row r="76" spans="10:17">
       <c r="J76" s="1" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="K76">
-        <v>0.02277432712215321</v>
+        <v>0.03263327948303716</v>
       </c>
       <c r="L76">
-        <v>22</v>
+        <v>101</v>
       </c>
       <c r="M76">
-        <v>24</v>
+        <v>113</v>
       </c>
       <c r="N76">
-        <v>0.92</v>
+        <v>0.89</v>
       </c>
       <c r="O76">
-        <v>0.07999999999999996</v>
+        <v>0.11</v>
       </c>
       <c r="P76" t="b">
         <v>1</v>
       </c>
       <c r="Q76">
-        <v>944</v>
+        <v>2994</v>
       </c>
     </row>
     <row r="77" spans="10:17">
       <c r="J77" s="1" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="K77">
-        <v>0.02163687676387582</v>
+        <v>0.03003533568904593</v>
       </c>
       <c r="L77">
-        <v>69</v>
+        <v>17</v>
       </c>
       <c r="M77">
-        <v>81</v>
+        <v>18</v>
       </c>
       <c r="N77">
-        <v>0.85</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="O77">
-        <v>0.15</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="P77" t="b">
         <v>1</v>
       </c>
       <c r="Q77">
-        <v>3120</v>
+        <v>549</v>
       </c>
     </row>
     <row r="78" spans="10:17">
       <c r="J78" s="1" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="K78">
-        <v>0.01813471502590673</v>
+        <v>0.02901554404145078</v>
       </c>
       <c r="L78">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="M78">
+        <v>31</v>
+      </c>
+      <c r="N78">
+        <v>0.9</v>
+      </c>
+      <c r="O78">
+        <v>0.09999999999999998</v>
+      </c>
+      <c r="P78" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q78">
+        <v>937</v>
+      </c>
+    </row>
+    <row r="79" spans="10:17">
+      <c r="J79" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="K79">
+        <v>0.02068965517241379</v>
+      </c>
+      <c r="L79">
         <v>24</v>
       </c>
-      <c r="N78">
-        <v>0.88</v>
-      </c>
-      <c r="O78">
-        <v>0.12</v>
-      </c>
-      <c r="P78" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q78">
-        <v>1137</v>
+      <c r="M79">
+        <v>25</v>
+      </c>
+      <c r="N79">
+        <v>0.96</v>
+      </c>
+      <c r="O79">
+        <v>0.04000000000000004</v>
+      </c>
+      <c r="P79" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q79">
+        <v>1136</v>
+      </c>
+    </row>
+    <row r="80" spans="10:17">
+      <c r="J80" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="K80">
+        <v>0.01665619107479573</v>
+      </c>
+      <c r="L80">
+        <v>53</v>
+      </c>
+      <c r="M80">
+        <v>72</v>
+      </c>
+      <c r="N80">
+        <v>0.74</v>
+      </c>
+      <c r="O80">
+        <v>0.26</v>
+      </c>
+      <c r="P80" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q80">
+        <v>3129</v>
       </c>
     </row>
   </sheetData>
